--- a/ICDT_Summary.xlsx
+++ b/ICDT_Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="2940" windowWidth="23480" windowHeight="15280"/>
+    <workbookView xWindow="6900" yWindow="1440" windowWidth="28280" windowHeight="19600"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="96">
   <si>
     <t>Integrated Course Design Tool - Graduate Attributes Summary</t>
   </si>
@@ -237,19 +237,10 @@
     <t>Developed</t>
   </si>
   <si>
-    <t>Macro:</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>1. Sort entire table on "Instruction List" (column E) Z-A</t>
-  </si>
-  <si>
-    <t>2. Sort populated table on "R" (column B) smallest-to-largest</t>
   </si>
   <si>
     <t>Course: ENME 471 (W16)</t>
@@ -268,15 +259,6 @@
   </si>
   <si>
     <t>Course: ENME 599 (W16)</t>
-  </si>
-  <si>
-    <t>3. Plot as column chart (potentially more than one)</t>
-  </si>
-  <si>
-    <t>Next Steps: (1) update ENME 471, (2) F15 data?, (3) include SDLRS, (4) resort and plot</t>
-  </si>
-  <si>
-    <t>This spreadsheet is intended to be used to summarize graduate attributes collection across the entire program each year.</t>
   </si>
   <si>
     <t>1. Cut-and-paste the ICDT summary page for each course where graduate attributes collection occurred in the "Course-x" worksheets.</t>
@@ -340,6 +322,9 @@
   </si>
   <si>
     <t>SDLRS (F14)</t>
+  </si>
+  <si>
+    <t>This spreadsheet is intended to be used in conjunction with the ICDT to summarize graduate attributes collection across an entire program each year.</t>
   </si>
 </sst>
 </file>
@@ -804,7 +789,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$F$10</c:f>
+              <c:f>Data!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -816,7 +801,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$11:$E$18</c:f>
+              <c:f>Data!$C$6:$E$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -902,7 +887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$11:$F$18</c:f>
+              <c:f>Data!$F$6:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -939,7 +924,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$10</c:f>
+              <c:f>Data!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -951,7 +936,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$11:$E$18</c:f>
+              <c:f>Data!$C$6:$E$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1037,7 +1022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$11:$G$18</c:f>
+              <c:f>Data!$G$6:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1074,7 +1059,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$10</c:f>
+              <c:f>Data!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1086,7 +1071,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$11:$E$18</c:f>
+              <c:f>Data!$C$6:$E$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1172,7 +1157,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$11:$H$18</c:f>
+              <c:f>Data!$H$6:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1209,7 +1194,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$10</c:f>
+              <c:f>Data!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1221,7 +1206,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$11:$E$18</c:f>
+              <c:f>Data!$C$6:$E$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1307,7 +1292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$11:$I$18</c:f>
+              <c:f>Data!$I$6:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1344,7 +1329,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$10</c:f>
+              <c:f>Data!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,7 +1341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$11:$E$18</c:f>
+              <c:f>Data!$C$6:$E$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1442,7 +1427,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$11:$J$18</c:f>
+              <c:f>Data!$J$6:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1483,11 +1468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2117309016"/>
-        <c:axId val="2117312072"/>
+        <c:axId val="2099939400"/>
+        <c:axId val="2099942504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117309016"/>
+        <c:axId val="2099939400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117312072"/>
+        <c:crossAx val="2099942504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117312072"/>
+        <c:axId val="2099942504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117309016"/>
+        <c:crossAx val="2099939400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,7 +1569,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$F$10</c:f>
+              <c:f>Data!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1596,7 +1581,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$19:$E$26</c:f>
+              <c:f>Data!$C$14:$E$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1682,7 +1667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$19:$F$26</c:f>
+              <c:f>Data!$F$14:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1719,7 +1704,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$10</c:f>
+              <c:f>Data!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1731,7 +1716,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$19:$E$26</c:f>
+              <c:f>Data!$C$14:$E$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1817,7 +1802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$19:$G$26</c:f>
+              <c:f>Data!$G$14:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1854,7 +1839,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$10</c:f>
+              <c:f>Data!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1866,7 +1851,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$19:$E$26</c:f>
+              <c:f>Data!$C$14:$E$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -1952,7 +1937,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$19:$H$26</c:f>
+              <c:f>Data!$H$14:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1989,7 +1974,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$10</c:f>
+              <c:f>Data!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2001,7 +1986,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$19:$E$26</c:f>
+              <c:f>Data!$C$14:$E$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -2087,7 +2072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$19:$I$26</c:f>
+              <c:f>Data!$I$14:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2124,7 +2109,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$10</c:f>
+              <c:f>Data!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2136,7 +2121,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$19:$E$26</c:f>
+              <c:f>Data!$C$14:$E$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -2222,7 +2207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$19:$J$26</c:f>
+              <c:f>Data!$J$14:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2263,11 +2248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142775768"/>
-        <c:axId val="2142778824"/>
+        <c:axId val="2101259992"/>
+        <c:axId val="2101263048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142775768"/>
+        <c:axId val="2101259992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142778824"/>
+        <c:crossAx val="2101263048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2284,7 +2269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142778824"/>
+        <c:axId val="2101263048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142775768"/>
+        <c:crossAx val="2101259992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2364,7 +2349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$F$10</c:f>
+              <c:f>Data!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2376,7 +2361,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$27:$E$33</c:f>
+              <c:f>Data!$C$22:$E$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2453,7 +2438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$27:$F$33</c:f>
+              <c:f>Data!$F$22:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2487,7 +2472,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$10</c:f>
+              <c:f>Data!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2499,7 +2484,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$27:$E$33</c:f>
+              <c:f>Data!$C$22:$E$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2576,7 +2561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$27:$G$33</c:f>
+              <c:f>Data!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2610,7 +2595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$10</c:f>
+              <c:f>Data!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2622,7 +2607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$27:$E$33</c:f>
+              <c:f>Data!$C$22:$E$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2699,7 +2684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$27:$H$33</c:f>
+              <c:f>Data!$H$22:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2733,7 +2718,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$10</c:f>
+              <c:f>Data!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2745,7 +2730,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$27:$E$33</c:f>
+              <c:f>Data!$C$22:$E$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2822,7 +2807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$27:$I$33</c:f>
+              <c:f>Data!$I$22:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2856,7 +2841,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$10</c:f>
+              <c:f>Data!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2868,7 +2853,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Data!$C$27:$E$33</c:f>
+              <c:f>Data!$C$22:$E$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2945,7 +2930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$27:$J$33</c:f>
+              <c:f>Data!$J$22:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2983,11 +2968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107860920"/>
-        <c:axId val="2107851592"/>
+        <c:axId val="2099982424"/>
+        <c:axId val="2099985480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107860920"/>
+        <c:axId val="2099982424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +2981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107851592"/>
+        <c:crossAx val="2099985480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3004,7 +2989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107851592"/>
+        <c:axId val="2099985480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107860920"/>
+        <c:crossAx val="2099982424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3036,7 +3021,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="166" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3047,7 +3032,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="166" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3058,7 +3043,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="166" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3069,7 +3054,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5820833"/>
+    <xdr:ext cx="8568675" cy="5822108"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3096,7 +3081,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5820833"/>
+    <xdr:ext cx="8568675" cy="5822108"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3123,7 +3108,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5820833"/>
+    <xdr:ext cx="8568675" cy="5822108"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3401,7 +3386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3424,67 +3409,67 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3487,7 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -5298,7 +5283,7 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -5319,7 +5304,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6855,7 +6840,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
         <v>65</v>
@@ -10228,11 +10213,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10252,4005 +10237,4000 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="str">
+        <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
+        <v>ENME 471 (W16)</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>'Course-1'!M$16</f>
+        <v/>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>'Course-1'!N$16</f>
+        <v/>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f>'Course-1'!O$16</f>
+        <v/>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>'Course-1'!P$16</f>
+        <v/>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>'Course-1'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>'Course-1'!R$16</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>'Course-1'!M$16</f>
+        <f>'Course-1'!M$23</f>
         <v/>
       </c>
       <c r="D8" s="5" t="str">
-        <f>'Course-1'!N$16</f>
+        <f>'Course-1'!N$23</f>
         <v/>
       </c>
       <c r="E8" s="5" t="str">
-        <f>'Course-1'!O$16</f>
+        <f>'Course-1'!O$23</f>
         <v/>
       </c>
       <c r="F8" s="5" t="str">
-        <f>'Course-1'!P$16</f>
+        <f>'Course-1'!P$23</f>
         <v/>
       </c>
       <c r="G8" s="5" t="str">
-        <f>'Course-1'!Q$16</f>
+        <f>'Course-1'!Q$23</f>
         <v/>
       </c>
       <c r="H8" s="5" t="str">
-        <f>'Course-1'!R$16</f>
+        <f>'Course-1'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>'Course-1'!M$23</f>
-        <v/>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>'Course-1'!N$23</f>
-        <v/>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>'Course-1'!O$23</f>
-        <v/>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>'Course-1'!P$23</f>
-        <v/>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f>'Course-1'!Q$23</f>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f>'Course-1'!R$23</f>
-        <v/>
+        <f>'Course-1'!M$30</f>
+        <v>Developed</v>
+      </c>
+      <c r="D9" s="5">
+        <f>'Course-1'!N$30</f>
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <f>'Course-1'!O$30</f>
+        <v>9.3956043956043955E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <f>'Course-1'!P$30</f>
+        <v>0.1489010989010989</v>
+      </c>
+      <c r="G9" s="5">
+        <f>'Course-1'!Q$30</f>
+        <v>0.31007326007326008</v>
+      </c>
+      <c r="H9" s="5">
+        <f>'Course-1'!R$30</f>
+        <v>0.42509157509157508</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>'Course-1'!M$30</f>
-        <v>Developed</v>
-      </c>
-      <c r="D10" s="5">
-        <f>'Course-1'!N$30</f>
-        <v>2.197802197802198E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <f>'Course-1'!O$30</f>
-        <v>9.3956043956043955E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <f>'Course-1'!P$30</f>
-        <v>0.1489010989010989</v>
-      </c>
-      <c r="G10" s="5">
-        <f>'Course-1'!Q$30</f>
-        <v>0.31007326007326008</v>
-      </c>
-      <c r="H10" s="5">
-        <f>'Course-1'!R$30</f>
-        <v>0.42509157509157508</v>
+        <f>'Course-1'!M$37</f>
+        <v/>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>'Course-1'!N$37</f>
+        <v/>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>'Course-1'!O$37</f>
+        <v/>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>'Course-1'!P$37</f>
+        <v/>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>'Course-1'!Q$37</f>
+        <v/>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>'Course-1'!R$37</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>'Course-1'!M$37</f>
+        <f>'Course-1'!M$44</f>
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <f>'Course-1'!N$37</f>
+        <f>'Course-1'!N$44</f>
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <f>'Course-1'!O$37</f>
+        <f>'Course-1'!O$44</f>
         <v/>
       </c>
       <c r="F11" s="5" t="str">
-        <f>'Course-1'!P$37</f>
+        <f>'Course-1'!P$44</f>
         <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <f>'Course-1'!Q$37</f>
+        <f>'Course-1'!Q$44</f>
         <v/>
       </c>
       <c r="H11" s="5" t="str">
-        <f>'Course-1'!R$37</f>
+        <f>'Course-1'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>'Course-1'!M$44</f>
+        <f>'Course-1'!M$51</f>
         <v/>
       </c>
       <c r="D12" s="5" t="str">
-        <f>'Course-1'!N$44</f>
+        <f>'Course-1'!N$51</f>
         <v/>
       </c>
       <c r="E12" s="5" t="str">
-        <f>'Course-1'!O$44</f>
+        <f>'Course-1'!O$51</f>
         <v/>
       </c>
       <c r="F12" s="5" t="str">
-        <f>'Course-1'!P$44</f>
+        <f>'Course-1'!P$51</f>
         <v/>
       </c>
       <c r="G12" s="5" t="str">
-        <f>'Course-1'!Q$44</f>
+        <f>'Course-1'!Q$51</f>
         <v/>
       </c>
       <c r="H12" s="5" t="str">
-        <f>'Course-1'!R$44</f>
+        <f>'Course-1'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>'Course-1'!M$51</f>
-        <v/>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f>'Course-1'!N$51</f>
-        <v/>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f>'Course-1'!O$51</f>
-        <v/>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f>'Course-1'!P$51</f>
-        <v/>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f>'Course-1'!Q$51</f>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f>'Course-1'!R$51</f>
-        <v/>
+        <f>'Course-1'!M$58</f>
+        <v>Applied</v>
+      </c>
+      <c r="D13" s="5">
+        <f>'Course-1'!N$58</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f>'Course-1'!O$58</f>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f>'Course-1'!P$58</f>
+        <v>2.2039072039072041E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>'Course-1'!Q$58</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <f>'Course-1'!R$58</f>
+        <v>0.93382173382173383</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>'Course-1'!M$58</f>
-        <v>Applied</v>
-      </c>
-      <c r="D14" s="5">
-        <f>'Course-1'!N$58</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f>'Course-1'!O$58</f>
-        <v>2.7472527472527472E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <f>'Course-1'!P$58</f>
-        <v>2.2039072039072041E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>'Course-1'!Q$58</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H14" s="5">
-        <f>'Course-1'!R$58</f>
-        <v>0.93382173382173383</v>
+        <f>'Course-1'!M$65</f>
+        <v/>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>'Course-1'!N$65</f>
+        <v/>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f>'Course-1'!O$65</f>
+        <v/>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>'Course-1'!P$65</f>
+        <v/>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>'Course-1'!Q$65</f>
+        <v/>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>'Course-1'!R$65</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>'Course-1'!M$65</f>
+        <f>'Course-1'!M$72</f>
         <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <f>'Course-1'!N$65</f>
+        <f>'Course-1'!N$72</f>
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <f>'Course-1'!O$65</f>
+        <f>'Course-1'!O$72</f>
         <v/>
       </c>
       <c r="F15" s="5" t="str">
-        <f>'Course-1'!P$65</f>
+        <f>'Course-1'!P$72</f>
         <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <f>'Course-1'!Q$65</f>
+        <f>'Course-1'!Q$72</f>
         <v/>
       </c>
       <c r="H15" s="5" t="str">
-        <f>'Course-1'!R$65</f>
+        <f>'Course-1'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>'Course-1'!M$72</f>
+        <f>'Course-1'!M$79</f>
         <v/>
       </c>
       <c r="D16" s="5" t="str">
-        <f>'Course-1'!N$72</f>
+        <f>'Course-1'!N$79</f>
         <v/>
       </c>
       <c r="E16" s="5" t="str">
-        <f>'Course-1'!O$72</f>
+        <f>'Course-1'!O$79</f>
         <v/>
       </c>
       <c r="F16" s="5" t="str">
-        <f>'Course-1'!P$72</f>
+        <f>'Course-1'!P$79</f>
         <v/>
       </c>
       <c r="G16" s="5" t="str">
-        <f>'Course-1'!Q$72</f>
+        <f>'Course-1'!Q$79</f>
         <v/>
       </c>
       <c r="H16" s="5" t="str">
-        <f>'Course-1'!R$72</f>
+        <f>'Course-1'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>'Course-1'!M$79</f>
+        <f>'Course-1'!M$86</f>
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <f>'Course-1'!N$79</f>
+        <f>'Course-1'!N$86</f>
         <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <f>'Course-1'!O$79</f>
+        <f>'Course-1'!O$86</f>
         <v/>
       </c>
       <c r="F17" s="5" t="str">
-        <f>'Course-1'!P$79</f>
+        <f>'Course-1'!P$86</f>
         <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <f>'Course-1'!Q$79</f>
+        <f>'Course-1'!Q$86</f>
         <v/>
       </c>
       <c r="H17" s="5" t="str">
-        <f>'Course-1'!R$79</f>
+        <f>'Course-1'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B18" t="str">
         <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
         <v>ENME 471 (W16)</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>'Course-1'!M$86</f>
+        <f>'Course-1'!M$93</f>
         <v/>
       </c>
       <c r="D18" s="5" t="str">
-        <f>'Course-1'!N$86</f>
+        <f>'Course-1'!N$93</f>
         <v/>
       </c>
       <c r="E18" s="5" t="str">
-        <f>'Course-1'!O$86</f>
+        <f>'Course-1'!O$93</f>
         <v/>
       </c>
       <c r="F18" s="5" t="str">
-        <f>'Course-1'!P$86</f>
+        <f>'Course-1'!P$93</f>
         <v/>
       </c>
       <c r="G18" s="5" t="str">
-        <f>'Course-1'!Q$86</f>
+        <f>'Course-1'!Q$93</f>
         <v/>
       </c>
       <c r="H18" s="5" t="str">
-        <f>'Course-1'!R$86</f>
+        <f>'Course-1'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="str">
-        <f>RIGHT('Course-1'!A$2,LEN('Course-1'!A$2)-8)</f>
-        <v>ENME 471 (W16)</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>'Course-1'!M$93</f>
-        <v/>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>'Course-1'!N$93</f>
-        <v/>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f>'Course-1'!O$93</f>
-        <v/>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>'Course-1'!P$93</f>
-        <v/>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f>'Course-1'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>'Course-1'!R$93</f>
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
+        <v>ENGG 481 (W16)</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>'Course-2'!M$16</f>
+        <v/>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f>'Course-2'!N$16</f>
+        <v/>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f>'Course-2'!O$16</f>
+        <v/>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>'Course-2'!P$16</f>
+        <v/>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f>'Course-2'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f>'Course-2'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f>'Course-2'!M$16</f>
+        <f>'Course-2'!M$23</f>
         <v/>
       </c>
       <c r="D20" s="9" t="str">
-        <f>'Course-2'!N$16</f>
+        <f>'Course-2'!N$23</f>
         <v/>
       </c>
       <c r="E20" s="9" t="str">
-        <f>'Course-2'!O$16</f>
+        <f>'Course-2'!O$23</f>
         <v/>
       </c>
       <c r="F20" s="9" t="str">
-        <f>'Course-2'!P$16</f>
+        <f>'Course-2'!P$23</f>
         <v/>
       </c>
       <c r="G20" s="9" t="str">
-        <f>'Course-2'!Q$16</f>
+        <f>'Course-2'!Q$23</f>
         <v/>
       </c>
       <c r="H20" s="9" t="str">
-        <f>'Course-2'!R$16</f>
+        <f>'Course-2'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f>'Course-2'!M$23</f>
+        <f>'Course-2'!M$30</f>
         <v/>
       </c>
       <c r="D21" s="9" t="str">
-        <f>'Course-2'!N$23</f>
+        <f>'Course-2'!N$30</f>
         <v/>
       </c>
       <c r="E21" s="9" t="str">
-        <f>'Course-2'!O$23</f>
+        <f>'Course-2'!O$30</f>
         <v/>
       </c>
       <c r="F21" s="9" t="str">
-        <f>'Course-2'!P$23</f>
+        <f>'Course-2'!P$30</f>
         <v/>
       </c>
       <c r="G21" s="9" t="str">
-        <f>'Course-2'!Q$23</f>
+        <f>'Course-2'!Q$30</f>
         <v/>
       </c>
       <c r="H21" s="9" t="str">
-        <f>'Course-2'!R$23</f>
+        <f>'Course-2'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f>'Course-2'!M$30</f>
+        <f>'Course-2'!M$37</f>
         <v/>
       </c>
       <c r="D22" s="9" t="str">
-        <f>'Course-2'!N$30</f>
+        <f>'Course-2'!N$37</f>
         <v/>
       </c>
       <c r="E22" s="9" t="str">
-        <f>'Course-2'!O$30</f>
+        <f>'Course-2'!O$37</f>
         <v/>
       </c>
       <c r="F22" s="9" t="str">
-        <f>'Course-2'!P$30</f>
+        <f>'Course-2'!P$37</f>
         <v/>
       </c>
       <c r="G22" s="9" t="str">
-        <f>'Course-2'!Q$30</f>
+        <f>'Course-2'!Q$37</f>
         <v/>
       </c>
       <c r="H22" s="9" t="str">
-        <f>'Course-2'!R$30</f>
+        <f>'Course-2'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f>'Course-2'!M$37</f>
+        <f>'Course-2'!M$44</f>
         <v/>
       </c>
       <c r="D23" s="9" t="str">
-        <f>'Course-2'!N$37</f>
+        <f>'Course-2'!N$44</f>
         <v/>
       </c>
       <c r="E23" s="9" t="str">
-        <f>'Course-2'!O$37</f>
+        <f>'Course-2'!O$44</f>
         <v/>
       </c>
       <c r="F23" s="9" t="str">
-        <f>'Course-2'!P$37</f>
+        <f>'Course-2'!P$44</f>
         <v/>
       </c>
       <c r="G23" s="9" t="str">
-        <f>'Course-2'!Q$37</f>
+        <f>'Course-2'!Q$44</f>
         <v/>
       </c>
       <c r="H23" s="9" t="str">
-        <f>'Course-2'!R$37</f>
+        <f>'Course-2'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>'Course-2'!M$44</f>
+        <f>'Course-2'!M$51</f>
         <v/>
       </c>
       <c r="D24" s="9" t="str">
-        <f>'Course-2'!N$44</f>
+        <f>'Course-2'!N$51</f>
         <v/>
       </c>
       <c r="E24" s="9" t="str">
-        <f>'Course-2'!O$44</f>
+        <f>'Course-2'!O$51</f>
         <v/>
       </c>
       <c r="F24" s="9" t="str">
-        <f>'Course-2'!P$44</f>
+        <f>'Course-2'!P$51</f>
         <v/>
       </c>
       <c r="G24" s="9" t="str">
-        <f>'Course-2'!Q$44</f>
+        <f>'Course-2'!Q$51</f>
         <v/>
       </c>
       <c r="H24" s="9" t="str">
-        <f>'Course-2'!R$44</f>
+        <f>'Course-2'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>'Course-2'!M$51</f>
+        <f>'Course-2'!M$58</f>
         <v/>
       </c>
       <c r="D25" s="9" t="str">
-        <f>'Course-2'!N$51</f>
+        <f>'Course-2'!N$58</f>
         <v/>
       </c>
       <c r="E25" s="9" t="str">
-        <f>'Course-2'!O$51</f>
+        <f>'Course-2'!O$58</f>
         <v/>
       </c>
       <c r="F25" s="9" t="str">
-        <f>'Course-2'!P$51</f>
+        <f>'Course-2'!P$58</f>
         <v/>
       </c>
       <c r="G25" s="9" t="str">
-        <f>'Course-2'!Q$51</f>
+        <f>'Course-2'!Q$58</f>
         <v/>
       </c>
       <c r="H25" s="9" t="str">
-        <f>'Course-2'!R$51</f>
+        <f>'Course-2'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>'Course-2'!M$58</f>
+        <f>'Course-2'!M$65</f>
         <v/>
       </c>
       <c r="D26" s="9" t="str">
-        <f>'Course-2'!N$58</f>
+        <f>'Course-2'!N$65</f>
         <v/>
       </c>
       <c r="E26" s="9" t="str">
-        <f>'Course-2'!O$58</f>
+        <f>'Course-2'!O$65</f>
         <v/>
       </c>
       <c r="F26" s="9" t="str">
-        <f>'Course-2'!P$58</f>
+        <f>'Course-2'!P$65</f>
         <v/>
       </c>
       <c r="G26" s="9" t="str">
-        <f>'Course-2'!Q$58</f>
+        <f>'Course-2'!Q$65</f>
         <v/>
       </c>
       <c r="H26" s="9" t="str">
-        <f>'Course-2'!R$58</f>
+        <f>'Course-2'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f>'Course-2'!M$65</f>
-        <v/>
-      </c>
-      <c r="D27" s="9" t="str">
-        <f>'Course-2'!N$65</f>
-        <v/>
-      </c>
-      <c r="E27" s="9" t="str">
-        <f>'Course-2'!O$65</f>
-        <v/>
-      </c>
-      <c r="F27" s="9" t="str">
-        <f>'Course-2'!P$65</f>
-        <v/>
-      </c>
-      <c r="G27" s="9" t="str">
-        <f>'Course-2'!Q$65</f>
-        <v/>
-      </c>
-      <c r="H27" s="9" t="str">
-        <f>'Course-2'!R$65</f>
-        <v/>
+        <f>'Course-2'!M$72</f>
+        <v>Introduced</v>
+      </c>
+      <c r="D27" s="9">
+        <f>'Course-2'!N$72</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <f>'Course-2'!O$72</f>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <f>'Course-2'!P$72</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G27" s="9">
+        <f>'Course-2'!Q$72</f>
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="9">
+        <f>'Course-2'!R$72</f>
+        <v>0.44907407407407413</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f>'Course-2'!M$72</f>
-        <v>Introduced</v>
-      </c>
-      <c r="D28" s="9">
-        <f>'Course-2'!N$72</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="E28" s="9">
-        <f>'Course-2'!O$72</f>
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F28" s="9">
-        <f>'Course-2'!P$72</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G28" s="9">
-        <f>'Course-2'!Q$72</f>
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="9">
-        <f>'Course-2'!R$72</f>
-        <v>0.44907407407407413</v>
+        <f>'Course-2'!M$79</f>
+        <v/>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>'Course-2'!N$79</f>
+        <v/>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f>'Course-2'!O$79</f>
+        <v/>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f>'Course-2'!P$79</f>
+        <v/>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f>'Course-2'!Q$79</f>
+        <v/>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f>'Course-2'!R$79</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f>'Course-2'!M$79</f>
+        <f>'Course-2'!M$86</f>
         <v/>
       </c>
       <c r="D29" s="9" t="str">
-        <f>'Course-2'!N$79</f>
+        <f>'Course-2'!N$86</f>
         <v/>
       </c>
       <c r="E29" s="9" t="str">
-        <f>'Course-2'!O$79</f>
+        <f>'Course-2'!O$86</f>
         <v/>
       </c>
       <c r="F29" s="9" t="str">
-        <f>'Course-2'!P$79</f>
+        <f>'Course-2'!P$86</f>
         <v/>
       </c>
       <c r="G29" s="9" t="str">
-        <f>'Course-2'!Q$79</f>
+        <f>'Course-2'!Q$86</f>
         <v/>
       </c>
       <c r="H29" s="9" t="str">
-        <f>'Course-2'!R$79</f>
+        <f>'Course-2'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="str">
         <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
         <v>ENGG 481 (W16)</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f>'Course-2'!M$86</f>
+        <f>'Course-2'!M$93</f>
         <v/>
       </c>
       <c r="D30" s="9" t="str">
-        <f>'Course-2'!N$86</f>
+        <f>'Course-2'!N$93</f>
         <v/>
       </c>
       <c r="E30" s="9" t="str">
-        <f>'Course-2'!O$86</f>
+        <f>'Course-2'!O$93</f>
         <v/>
       </c>
       <c r="F30" s="9" t="str">
-        <f>'Course-2'!P$86</f>
+        <f>'Course-2'!P$93</f>
         <v/>
       </c>
       <c r="G30" s="9" t="str">
-        <f>'Course-2'!Q$86</f>
+        <f>'Course-2'!Q$93</f>
         <v/>
       </c>
       <c r="H30" s="9" t="str">
-        <f>'Course-2'!R$86</f>
+        <f>'Course-2'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="str">
-        <f>RIGHT('Course-2'!A$2,LEN('Course-2'!A$2)-8)</f>
-        <v>ENGG 481 (W16)</v>
-      </c>
-      <c r="C31" s="8" t="str">
-        <f>'Course-2'!M$93</f>
-        <v/>
-      </c>
-      <c r="D31" s="9" t="str">
-        <f>'Course-2'!N$93</f>
-        <v/>
-      </c>
-      <c r="E31" s="9" t="str">
-        <f>'Course-2'!O$93</f>
-        <v/>
-      </c>
-      <c r="F31" s="9" t="str">
-        <f>'Course-2'!P$93</f>
-        <v/>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f>'Course-2'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H31" s="9" t="str">
-        <f>'Course-2'!R$93</f>
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="str">
+        <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
+        <v>ENME 461 (W16)</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f>'Course-3'!M$16</f>
+        <v/>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>'Course-3'!N$16</f>
+        <v/>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f>'Course-3'!O$16</f>
+        <v/>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f>'Course-3'!P$16</f>
+        <v/>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f>'Course-3'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>'Course-3'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>'Course-3'!M$16</f>
+        <f>'Course-3'!M$23</f>
         <v/>
       </c>
       <c r="D32" s="5" t="str">
-        <f>'Course-3'!N$16</f>
+        <f>'Course-3'!N$23</f>
         <v/>
       </c>
       <c r="E32" s="5" t="str">
-        <f>'Course-3'!O$16</f>
+        <f>'Course-3'!O$23</f>
         <v/>
       </c>
       <c r="F32" s="5" t="str">
-        <f>'Course-3'!P$16</f>
+        <f>'Course-3'!P$23</f>
         <v/>
       </c>
       <c r="G32" s="5" t="str">
-        <f>'Course-3'!Q$16</f>
+        <f>'Course-3'!Q$23</f>
         <v/>
       </c>
       <c r="H32" s="5" t="str">
-        <f>'Course-3'!R$16</f>
+        <f>'Course-3'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>'Course-3'!M$23</f>
+        <f>'Course-3'!M$30</f>
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <f>'Course-3'!N$23</f>
+        <f>'Course-3'!N$30</f>
         <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <f>'Course-3'!O$23</f>
+        <f>'Course-3'!O$30</f>
         <v/>
       </c>
       <c r="F33" s="5" t="str">
-        <f>'Course-3'!P$23</f>
+        <f>'Course-3'!P$30</f>
         <v/>
       </c>
       <c r="G33" s="5" t="str">
-        <f>'Course-3'!Q$23</f>
+        <f>'Course-3'!Q$30</f>
         <v/>
       </c>
       <c r="H33" s="5" t="str">
-        <f>'Course-3'!R$23</f>
+        <f>'Course-3'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B34" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>'Course-3'!M$30</f>
+        <f>'Course-3'!M$37</f>
         <v/>
       </c>
       <c r="D34" s="5" t="str">
-        <f>'Course-3'!N$30</f>
+        <f>'Course-3'!N$37</f>
         <v/>
       </c>
       <c r="E34" s="5" t="str">
-        <f>'Course-3'!O$30</f>
+        <f>'Course-3'!O$37</f>
         <v/>
       </c>
       <c r="F34" s="5" t="str">
-        <f>'Course-3'!P$30</f>
+        <f>'Course-3'!P$37</f>
         <v/>
       </c>
       <c r="G34" s="5" t="str">
-        <f>'Course-3'!Q$30</f>
+        <f>'Course-3'!Q$37</f>
         <v/>
       </c>
       <c r="H34" s="5" t="str">
-        <f>'Course-3'!R$30</f>
+        <f>'Course-3'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B35" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>'Course-3'!M$37</f>
-        <v/>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f>'Course-3'!N$37</f>
-        <v/>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f>'Course-3'!O$37</f>
-        <v/>
-      </c>
-      <c r="F35" s="5" t="str">
-        <f>'Course-3'!P$37</f>
-        <v/>
-      </c>
-      <c r="G35" s="5" t="str">
-        <f>'Course-3'!Q$37</f>
-        <v/>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>'Course-3'!R$37</f>
-        <v/>
+        <f>'Course-3'!M$44</f>
+        <v>Developed</v>
+      </c>
+      <c r="D35" s="5">
+        <f>'Course-3'!N$44</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f>'Course-3'!O$44</f>
+        <v>4.5977011494252873E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <f>'Course-3'!P$44</f>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <f>'Course-3'!Q$44</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="H35" s="5">
+        <f>'Course-3'!R$44</f>
+        <v>0.83908045977011492</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>'Course-3'!M$44</f>
-        <v>Developed</v>
-      </c>
-      <c r="D36" s="5">
-        <f>'Course-3'!N$44</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <f>'Course-3'!O$44</f>
-        <v>4.5977011494252873E-2</v>
-      </c>
-      <c r="F36" s="5">
-        <f>'Course-3'!P$44</f>
-        <v>1.1494252873563218E-2</v>
-      </c>
-      <c r="G36" s="5">
-        <f>'Course-3'!Q$44</f>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="H36" s="5">
-        <f>'Course-3'!R$44</f>
-        <v>0.83908045977011492</v>
+        <f>'Course-3'!M$51</f>
+        <v/>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f>'Course-3'!N$51</f>
+        <v/>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>'Course-3'!O$51</f>
+        <v/>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>'Course-3'!P$51</f>
+        <v/>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f>'Course-3'!Q$51</f>
+        <v/>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>'Course-3'!R$51</f>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>'Course-3'!M$51</f>
+        <f>'Course-3'!M$58</f>
         <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <f>'Course-3'!N$51</f>
+        <f>'Course-3'!N$58</f>
         <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <f>'Course-3'!O$51</f>
+        <f>'Course-3'!O$58</f>
         <v/>
       </c>
       <c r="F37" s="5" t="str">
-        <f>'Course-3'!P$51</f>
+        <f>'Course-3'!P$58</f>
         <v/>
       </c>
       <c r="G37" s="5" t="str">
-        <f>'Course-3'!Q$51</f>
+        <f>'Course-3'!Q$58</f>
         <v/>
       </c>
       <c r="H37" s="5" t="str">
-        <f>'Course-3'!R$51</f>
+        <f>'Course-3'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>'Course-3'!M$58</f>
+        <f>'Course-3'!M$65</f>
         <v/>
       </c>
       <c r="D38" s="5" t="str">
-        <f>'Course-3'!N$58</f>
+        <f>'Course-3'!N$65</f>
         <v/>
       </c>
       <c r="E38" s="5" t="str">
-        <f>'Course-3'!O$58</f>
+        <f>'Course-3'!O$65</f>
         <v/>
       </c>
       <c r="F38" s="5" t="str">
-        <f>'Course-3'!P$58</f>
+        <f>'Course-3'!P$65</f>
         <v/>
       </c>
       <c r="G38" s="5" t="str">
-        <f>'Course-3'!Q$58</f>
+        <f>'Course-3'!Q$65</f>
         <v/>
       </c>
       <c r="H38" s="5" t="str">
-        <f>'Course-3'!R$58</f>
+        <f>'Course-3'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>'Course-3'!M$65</f>
+        <f>'Course-3'!M$72</f>
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <f>'Course-3'!N$65</f>
+        <f>'Course-3'!N$72</f>
         <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <f>'Course-3'!O$65</f>
+        <f>'Course-3'!O$72</f>
         <v/>
       </c>
       <c r="F39" s="5" t="str">
-        <f>'Course-3'!P$65</f>
+        <f>'Course-3'!P$72</f>
         <v/>
       </c>
       <c r="G39" s="5" t="str">
-        <f>'Course-3'!Q$65</f>
+        <f>'Course-3'!Q$72</f>
         <v/>
       </c>
       <c r="H39" s="5" t="str">
-        <f>'Course-3'!R$65</f>
+        <f>'Course-3'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>'Course-3'!M$72</f>
+        <f>'Course-3'!M$79</f>
         <v/>
       </c>
       <c r="D40" s="5" t="str">
-        <f>'Course-3'!N$72</f>
+        <f>'Course-3'!N$79</f>
         <v/>
       </c>
       <c r="E40" s="5" t="str">
-        <f>'Course-3'!O$72</f>
+        <f>'Course-3'!O$79</f>
         <v/>
       </c>
       <c r="F40" s="5" t="str">
-        <f>'Course-3'!P$72</f>
+        <f>'Course-3'!P$79</f>
         <v/>
       </c>
       <c r="G40" s="5" t="str">
-        <f>'Course-3'!Q$72</f>
+        <f>'Course-3'!Q$79</f>
         <v/>
       </c>
       <c r="H40" s="5" t="str">
-        <f>'Course-3'!R$72</f>
+        <f>'Course-3'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>'Course-3'!M$79</f>
+        <f>'Course-3'!M$86</f>
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <f>'Course-3'!N$79</f>
+        <f>'Course-3'!N$86</f>
         <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <f>'Course-3'!O$79</f>
+        <f>'Course-3'!O$86</f>
         <v/>
       </c>
       <c r="F41" s="5" t="str">
-        <f>'Course-3'!P$79</f>
+        <f>'Course-3'!P$86</f>
         <v/>
       </c>
       <c r="G41" s="5" t="str">
-        <f>'Course-3'!Q$79</f>
+        <f>'Course-3'!Q$86</f>
         <v/>
       </c>
       <c r="H41" s="5" t="str">
-        <f>'Course-3'!R$79</f>
+        <f>'Course-3'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B42" t="str">
         <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
         <v>ENME 461 (W16)</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>'Course-3'!M$86</f>
+        <f>'Course-3'!M$93</f>
         <v/>
       </c>
       <c r="D42" s="5" t="str">
-        <f>'Course-3'!N$86</f>
+        <f>'Course-3'!N$93</f>
         <v/>
       </c>
       <c r="E42" s="5" t="str">
-        <f>'Course-3'!O$86</f>
+        <f>'Course-3'!O$93</f>
         <v/>
       </c>
       <c r="F42" s="5" t="str">
-        <f>'Course-3'!P$86</f>
+        <f>'Course-3'!P$93</f>
         <v/>
       </c>
       <c r="G42" s="5" t="str">
-        <f>'Course-3'!Q$86</f>
+        <f>'Course-3'!Q$93</f>
         <v/>
       </c>
       <c r="H42" s="5" t="str">
-        <f>'Course-3'!R$86</f>
+        <f>'Course-3'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="str">
-        <f>RIGHT('Course-3'!A$2,LEN('Course-3'!A$2)-8)</f>
-        <v>ENME 461 (W16)</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f>'Course-3'!M$93</f>
-        <v/>
-      </c>
-      <c r="D43" s="5" t="str">
-        <f>'Course-3'!N$93</f>
-        <v/>
-      </c>
-      <c r="E43" s="5" t="str">
-        <f>'Course-3'!O$93</f>
-        <v/>
-      </c>
-      <c r="F43" s="5" t="str">
-        <f>'Course-3'!P$93</f>
-        <v/>
-      </c>
-      <c r="G43" s="5" t="str">
-        <f>'Course-3'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f>'Course-3'!R$93</f>
+      <c r="A43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
+        <v>ENME 473 (W16)</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>'Course-4'!M$16</f>
+        <v/>
+      </c>
+      <c r="D43" s="9" t="str">
+        <f>'Course-4'!N$16</f>
+        <v/>
+      </c>
+      <c r="E43" s="9" t="str">
+        <f>'Course-4'!O$16</f>
+        <v/>
+      </c>
+      <c r="F43" s="9" t="str">
+        <f>'Course-4'!P$16</f>
+        <v/>
+      </c>
+      <c r="G43" s="9" t="str">
+        <f>'Course-4'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H43" s="9" t="str">
+        <f>'Course-4'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f>'Course-4'!M$16</f>
-        <v/>
-      </c>
-      <c r="D44" s="9" t="str">
-        <f>'Course-4'!N$16</f>
-        <v/>
-      </c>
-      <c r="E44" s="9" t="str">
-        <f>'Course-4'!O$16</f>
-        <v/>
-      </c>
-      <c r="F44" s="9" t="str">
-        <f>'Course-4'!P$16</f>
-        <v/>
-      </c>
-      <c r="G44" s="9" t="str">
-        <f>'Course-4'!Q$16</f>
-        <v/>
-      </c>
-      <c r="H44" s="9" t="str">
-        <f>'Course-4'!R$16</f>
-        <v/>
+        <f>'Course-4'!M$23</f>
+        <v>Developed</v>
+      </c>
+      <c r="D44" s="9">
+        <f>'Course-4'!N$23</f>
+        <v>2.4096385542168679E-2</v>
+      </c>
+      <c r="E44" s="9">
+        <f>'Course-4'!O$23</f>
+        <v>5.6177089309619434E-2</v>
+      </c>
+      <c r="F44" s="9">
+        <f>'Course-4'!P$23</f>
+        <v>0.14443488238668964</v>
+      </c>
+      <c r="G44" s="9">
+        <f>'Course-4'!Q$23</f>
+        <v>0.19650028686173263</v>
+      </c>
+      <c r="H44" s="9">
+        <f>'Course-4'!R$23</f>
+        <v>0.57879135589978958</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C45" s="8" t="str">
-        <f>'Course-4'!M$23</f>
-        <v>Developed</v>
-      </c>
-      <c r="D45" s="9">
-        <f>'Course-4'!N$23</f>
-        <v>2.4096385542168679E-2</v>
-      </c>
-      <c r="E45" s="9">
-        <f>'Course-4'!O$23</f>
-        <v>5.6177089309619434E-2</v>
-      </c>
-      <c r="F45" s="9">
-        <f>'Course-4'!P$23</f>
-        <v>0.14443488238668964</v>
-      </c>
-      <c r="G45" s="9">
-        <f>'Course-4'!Q$23</f>
-        <v>0.19650028686173263</v>
-      </c>
-      <c r="H45" s="9">
-        <f>'Course-4'!R$23</f>
-        <v>0.57879135589978958</v>
+        <f>'Course-4'!M$30</f>
+        <v/>
+      </c>
+      <c r="D45" s="9" t="str">
+        <f>'Course-4'!N$30</f>
+        <v/>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f>'Course-4'!O$30</f>
+        <v/>
+      </c>
+      <c r="F45" s="9" t="str">
+        <f>'Course-4'!P$30</f>
+        <v/>
+      </c>
+      <c r="G45" s="9" t="str">
+        <f>'Course-4'!Q$30</f>
+        <v/>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f>'Course-4'!R$30</f>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f>'Course-4'!M$30</f>
+        <f>'Course-4'!M$37</f>
         <v/>
       </c>
       <c r="D46" s="9" t="str">
-        <f>'Course-4'!N$30</f>
+        <f>'Course-4'!N$37</f>
         <v/>
       </c>
       <c r="E46" s="9" t="str">
-        <f>'Course-4'!O$30</f>
+        <f>'Course-4'!O$37</f>
         <v/>
       </c>
       <c r="F46" s="9" t="str">
-        <f>'Course-4'!P$30</f>
+        <f>'Course-4'!P$37</f>
         <v/>
       </c>
       <c r="G46" s="9" t="str">
-        <f>'Course-4'!Q$30</f>
+        <f>'Course-4'!Q$37</f>
         <v/>
       </c>
       <c r="H46" s="9" t="str">
-        <f>'Course-4'!R$30</f>
+        <f>'Course-4'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C47" s="8" t="str">
-        <f>'Course-4'!M$37</f>
+        <f>'Course-4'!M$44</f>
         <v/>
       </c>
       <c r="D47" s="9" t="str">
-        <f>'Course-4'!N$37</f>
+        <f>'Course-4'!N$44</f>
         <v/>
       </c>
       <c r="E47" s="9" t="str">
-        <f>'Course-4'!O$37</f>
+        <f>'Course-4'!O$44</f>
         <v/>
       </c>
       <c r="F47" s="9" t="str">
-        <f>'Course-4'!P$37</f>
+        <f>'Course-4'!P$44</f>
         <v/>
       </c>
       <c r="G47" s="9" t="str">
-        <f>'Course-4'!Q$37</f>
+        <f>'Course-4'!Q$44</f>
         <v/>
       </c>
       <c r="H47" s="9" t="str">
-        <f>'Course-4'!R$37</f>
+        <f>'Course-4'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>'Course-4'!M$44</f>
+        <f>'Course-4'!M$51</f>
         <v/>
       </c>
       <c r="D48" s="9" t="str">
-        <f>'Course-4'!N$44</f>
+        <f>'Course-4'!N$51</f>
         <v/>
       </c>
       <c r="E48" s="9" t="str">
-        <f>'Course-4'!O$44</f>
+        <f>'Course-4'!O$51</f>
         <v/>
       </c>
       <c r="F48" s="9" t="str">
-        <f>'Course-4'!P$44</f>
+        <f>'Course-4'!P$51</f>
         <v/>
       </c>
       <c r="G48" s="9" t="str">
-        <f>'Course-4'!Q$44</f>
+        <f>'Course-4'!Q$51</f>
         <v/>
       </c>
       <c r="H48" s="9" t="str">
-        <f>'Course-4'!R$44</f>
+        <f>'Course-4'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f>'Course-4'!M$51</f>
+        <f>'Course-4'!M$58</f>
         <v/>
       </c>
       <c r="D49" s="9" t="str">
-        <f>'Course-4'!N$51</f>
+        <f>'Course-4'!N$58</f>
         <v/>
       </c>
       <c r="E49" s="9" t="str">
-        <f>'Course-4'!O$51</f>
+        <f>'Course-4'!O$58</f>
         <v/>
       </c>
       <c r="F49" s="9" t="str">
-        <f>'Course-4'!P$51</f>
+        <f>'Course-4'!P$58</f>
         <v/>
       </c>
       <c r="G49" s="9" t="str">
-        <f>'Course-4'!Q$51</f>
+        <f>'Course-4'!Q$58</f>
         <v/>
       </c>
       <c r="H49" s="9" t="str">
-        <f>'Course-4'!R$51</f>
+        <f>'Course-4'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f>'Course-4'!M$58</f>
+        <f>'Course-4'!M$65</f>
         <v/>
       </c>
       <c r="D50" s="9" t="str">
-        <f>'Course-4'!N$58</f>
+        <f>'Course-4'!N$65</f>
         <v/>
       </c>
       <c r="E50" s="9" t="str">
-        <f>'Course-4'!O$58</f>
+        <f>'Course-4'!O$65</f>
         <v/>
       </c>
       <c r="F50" s="9" t="str">
-        <f>'Course-4'!P$58</f>
+        <f>'Course-4'!P$65</f>
         <v/>
       </c>
       <c r="G50" s="9" t="str">
-        <f>'Course-4'!Q$58</f>
+        <f>'Course-4'!Q$65</f>
         <v/>
       </c>
       <c r="H50" s="9" t="str">
-        <f>'Course-4'!R$58</f>
+        <f>'Course-4'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f>'Course-4'!M$65</f>
+        <f>'Course-4'!M$72</f>
         <v/>
       </c>
       <c r="D51" s="9" t="str">
-        <f>'Course-4'!N$65</f>
+        <f>'Course-4'!N$72</f>
         <v/>
       </c>
       <c r="E51" s="9" t="str">
-        <f>'Course-4'!O$65</f>
+        <f>'Course-4'!O$72</f>
         <v/>
       </c>
       <c r="F51" s="9" t="str">
-        <f>'Course-4'!P$65</f>
+        <f>'Course-4'!P$72</f>
         <v/>
       </c>
       <c r="G51" s="9" t="str">
-        <f>'Course-4'!Q$65</f>
+        <f>'Course-4'!Q$72</f>
         <v/>
       </c>
       <c r="H51" s="9" t="str">
-        <f>'Course-4'!R$65</f>
+        <f>'Course-4'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>'Course-4'!M$72</f>
+        <f>'Course-4'!M$79</f>
         <v/>
       </c>
       <c r="D52" s="9" t="str">
-        <f>'Course-4'!N$72</f>
+        <f>'Course-4'!N$79</f>
         <v/>
       </c>
       <c r="E52" s="9" t="str">
-        <f>'Course-4'!O$72</f>
+        <f>'Course-4'!O$79</f>
         <v/>
       </c>
       <c r="F52" s="9" t="str">
-        <f>'Course-4'!P$72</f>
+        <f>'Course-4'!P$79</f>
         <v/>
       </c>
       <c r="G52" s="9" t="str">
-        <f>'Course-4'!Q$72</f>
+        <f>'Course-4'!Q$79</f>
         <v/>
       </c>
       <c r="H52" s="9" t="str">
-        <f>'Course-4'!R$72</f>
+        <f>'Course-4'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f>'Course-4'!M$79</f>
+        <f>'Course-4'!M$86</f>
         <v/>
       </c>
       <c r="D53" s="9" t="str">
-        <f>'Course-4'!N$79</f>
+        <f>'Course-4'!N$86</f>
         <v/>
       </c>
       <c r="E53" s="9" t="str">
-        <f>'Course-4'!O$79</f>
+        <f>'Course-4'!O$86</f>
         <v/>
       </c>
       <c r="F53" s="9" t="str">
-        <f>'Course-4'!P$79</f>
+        <f>'Course-4'!P$86</f>
         <v/>
       </c>
       <c r="G53" s="9" t="str">
-        <f>'Course-4'!Q$79</f>
+        <f>'Course-4'!Q$86</f>
         <v/>
       </c>
       <c r="H53" s="9" t="str">
-        <f>'Course-4'!R$79</f>
+        <f>'Course-4'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B54" s="7" t="str">
         <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
         <v>ENME 473 (W16)</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f>'Course-4'!M$86</f>
+        <f>'Course-4'!M$93</f>
         <v/>
       </c>
       <c r="D54" s="9" t="str">
-        <f>'Course-4'!N$86</f>
+        <f>'Course-4'!N$93</f>
         <v/>
       </c>
       <c r="E54" s="9" t="str">
-        <f>'Course-4'!O$86</f>
+        <f>'Course-4'!O$93</f>
         <v/>
       </c>
       <c r="F54" s="9" t="str">
-        <f>'Course-4'!P$86</f>
+        <f>'Course-4'!P$93</f>
         <v/>
       </c>
       <c r="G54" s="9" t="str">
-        <f>'Course-4'!Q$86</f>
+        <f>'Course-4'!Q$93</f>
         <v/>
       </c>
       <c r="H54" s="9" t="str">
-        <f>'Course-4'!R$86</f>
+        <f>'Course-4'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="7" t="str">
-        <f>RIGHT('Course-4'!A$2,LEN('Course-4'!A$2)-8)</f>
-        <v>ENME 473 (W16)</v>
-      </c>
-      <c r="C55" s="8" t="str">
-        <f>'Course-4'!M$93</f>
-        <v/>
-      </c>
-      <c r="D55" s="9" t="str">
-        <f>'Course-4'!N$93</f>
-        <v/>
-      </c>
-      <c r="E55" s="9" t="str">
-        <f>'Course-4'!O$93</f>
-        <v/>
-      </c>
-      <c r="F55" s="9" t="str">
-        <f>'Course-4'!P$93</f>
-        <v/>
-      </c>
-      <c r="G55" s="9" t="str">
-        <f>'Course-4'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H55" s="9" t="str">
-        <f>'Course-4'!R$93</f>
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="str">
+        <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
+        <v>ENME 538 (W16)</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f>'Course-5'!M$16</f>
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f>'Course-5'!N$16</f>
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <f>'Course-5'!O$16</f>
+        <v/>
+      </c>
+      <c r="F55" s="5" t="str">
+        <f>'Course-5'!P$16</f>
+        <v/>
+      </c>
+      <c r="G55" s="5" t="str">
+        <f>'Course-5'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>'Course-5'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>'Course-5'!M$16</f>
+        <f>'Course-5'!M$23</f>
         <v/>
       </c>
       <c r="D56" s="5" t="str">
-        <f>'Course-5'!N$16</f>
+        <f>'Course-5'!N$23</f>
         <v/>
       </c>
       <c r="E56" s="5" t="str">
-        <f>'Course-5'!O$16</f>
+        <f>'Course-5'!O$23</f>
         <v/>
       </c>
       <c r="F56" s="5" t="str">
-        <f>'Course-5'!P$16</f>
+        <f>'Course-5'!P$23</f>
         <v/>
       </c>
       <c r="G56" s="5" t="str">
-        <f>'Course-5'!Q$16</f>
+        <f>'Course-5'!Q$23</f>
         <v/>
       </c>
       <c r="H56" s="5" t="str">
-        <f>'Course-5'!R$16</f>
+        <f>'Course-5'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>'Course-5'!M$23</f>
+        <f>'Course-5'!M$30</f>
         <v/>
       </c>
       <c r="D57" s="5" t="str">
-        <f>'Course-5'!N$23</f>
+        <f>'Course-5'!N$30</f>
         <v/>
       </c>
       <c r="E57" s="5" t="str">
-        <f>'Course-5'!O$23</f>
+        <f>'Course-5'!O$30</f>
         <v/>
       </c>
       <c r="F57" s="5" t="str">
-        <f>'Course-5'!P$23</f>
+        <f>'Course-5'!P$30</f>
         <v/>
       </c>
       <c r="G57" s="5" t="str">
-        <f>'Course-5'!Q$23</f>
+        <f>'Course-5'!Q$30</f>
         <v/>
       </c>
       <c r="H57" s="5" t="str">
-        <f>'Course-5'!R$23</f>
+        <f>'Course-5'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B58" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>'Course-5'!M$30</f>
-        <v/>
-      </c>
-      <c r="D58" s="5" t="str">
-        <f>'Course-5'!N$30</f>
-        <v/>
-      </c>
-      <c r="E58" s="5" t="str">
-        <f>'Course-5'!O$30</f>
-        <v/>
-      </c>
-      <c r="F58" s="5" t="str">
-        <f>'Course-5'!P$30</f>
-        <v/>
-      </c>
-      <c r="G58" s="5" t="str">
-        <f>'Course-5'!Q$30</f>
-        <v/>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f>'Course-5'!R$30</f>
-        <v/>
+        <f>'Course-5'!M$37</f>
+        <v>Applied</v>
+      </c>
+      <c r="D58" s="5">
+        <f>'Course-5'!N$37</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <f>'Course-5'!O$37</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <f>'Course-5'!P$37</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <f>'Course-5'!Q$37</f>
+        <v>0.16774193548387098</v>
+      </c>
+      <c r="H58" s="5">
+        <f>'Course-5'!R$37</f>
+        <v>0.83225806451612905</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B59" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>'Course-5'!M$37</f>
-        <v>Applied</v>
-      </c>
-      <c r="D59" s="5">
-        <f>'Course-5'!N$37</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="5">
-        <f>'Course-5'!O$37</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="5">
-        <f>'Course-5'!P$37</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
-        <f>'Course-5'!Q$37</f>
-        <v>0.16774193548387098</v>
-      </c>
-      <c r="H59" s="5">
-        <f>'Course-5'!R$37</f>
-        <v>0.83225806451612905</v>
+        <f>'Course-5'!M$44</f>
+        <v/>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f>'Course-5'!N$44</f>
+        <v/>
+      </c>
+      <c r="E59" s="5" t="str">
+        <f>'Course-5'!O$44</f>
+        <v/>
+      </c>
+      <c r="F59" s="5" t="str">
+        <f>'Course-5'!P$44</f>
+        <v/>
+      </c>
+      <c r="G59" s="5" t="str">
+        <f>'Course-5'!Q$44</f>
+        <v/>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>'Course-5'!R$44</f>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>'Course-5'!M$44</f>
-        <v/>
-      </c>
-      <c r="D60" s="5" t="str">
-        <f>'Course-5'!N$44</f>
-        <v/>
-      </c>
-      <c r="E60" s="5" t="str">
-        <f>'Course-5'!O$44</f>
-        <v/>
-      </c>
-      <c r="F60" s="5" t="str">
-        <f>'Course-5'!P$44</f>
-        <v/>
-      </c>
-      <c r="G60" s="5" t="str">
-        <f>'Course-5'!Q$44</f>
-        <v/>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f>'Course-5'!R$44</f>
-        <v/>
+        <f>'Course-5'!M$51</f>
+        <v>Applied</v>
+      </c>
+      <c r="D60" s="5">
+        <f>'Course-5'!N$51</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <f>'Course-5'!O$51</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="F60" s="5">
+        <f>'Course-5'!P$51</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="G60" s="5">
+        <f>'Course-5'!Q$51</f>
+        <v>7.0967741935483872E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <f>'Course-5'!R$51</f>
+        <v>0.91612903225806452</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>'Course-5'!M$51</f>
+        <f>'Course-5'!M$58</f>
         <v>Applied</v>
       </c>
       <c r="D61" s="5">
-        <f>'Course-5'!N$51</f>
+        <f>'Course-5'!N$58</f>
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f>'Course-5'!O$51</f>
-        <v>6.4516129032258064E-3</v>
+        <f>'Course-5'!O$58</f>
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <f>'Course-5'!P$51</f>
-        <v>6.4516129032258064E-3</v>
+        <f>'Course-5'!P$58</f>
+        <v>0</v>
       </c>
       <c r="G61" s="5">
-        <f>'Course-5'!Q$51</f>
-        <v>7.0967741935483872E-2</v>
+        <f>'Course-5'!Q$58</f>
+        <v>5.1612903225806452E-2</v>
       </c>
       <c r="H61" s="5">
-        <f>'Course-5'!R$51</f>
-        <v>0.91612903225806452</v>
+        <f>'Course-5'!R$58</f>
+        <v>0.94838709677419353</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>'Course-5'!M$58</f>
-        <v>Applied</v>
-      </c>
-      <c r="D62" s="5">
-        <f>'Course-5'!N$58</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="5">
-        <f>'Course-5'!O$58</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="5">
-        <f>'Course-5'!P$58</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
-        <f>'Course-5'!Q$58</f>
-        <v>5.1612903225806452E-2</v>
-      </c>
-      <c r="H62" s="5">
-        <f>'Course-5'!R$58</f>
-        <v>0.94838709677419353</v>
+        <f>'Course-5'!M$65</f>
+        <v/>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f>'Course-5'!N$65</f>
+        <v/>
+      </c>
+      <c r="E62" s="5" t="str">
+        <f>'Course-5'!O$65</f>
+        <v/>
+      </c>
+      <c r="F62" s="5" t="str">
+        <f>'Course-5'!P$65</f>
+        <v/>
+      </c>
+      <c r="G62" s="5" t="str">
+        <f>'Course-5'!Q$65</f>
+        <v/>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>'Course-5'!R$65</f>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B63" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>'Course-5'!M$65</f>
+        <f>'Course-5'!M$72</f>
         <v/>
       </c>
       <c r="D63" s="5" t="str">
-        <f>'Course-5'!N$65</f>
+        <f>'Course-5'!N$72</f>
         <v/>
       </c>
       <c r="E63" s="5" t="str">
-        <f>'Course-5'!O$65</f>
+        <f>'Course-5'!O$72</f>
         <v/>
       </c>
       <c r="F63" s="5" t="str">
-        <f>'Course-5'!P$65</f>
+        <f>'Course-5'!P$72</f>
         <v/>
       </c>
       <c r="G63" s="5" t="str">
-        <f>'Course-5'!Q$65</f>
+        <f>'Course-5'!Q$72</f>
         <v/>
       </c>
       <c r="H63" s="5" t="str">
-        <f>'Course-5'!R$65</f>
+        <f>'Course-5'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>'Course-5'!M$72</f>
+        <f>'Course-5'!M$79</f>
         <v/>
       </c>
       <c r="D64" s="5" t="str">
-        <f>'Course-5'!N$72</f>
+        <f>'Course-5'!N$79</f>
         <v/>
       </c>
       <c r="E64" s="5" t="str">
-        <f>'Course-5'!O$72</f>
+        <f>'Course-5'!O$79</f>
         <v/>
       </c>
       <c r="F64" s="5" t="str">
-        <f>'Course-5'!P$72</f>
+        <f>'Course-5'!P$79</f>
         <v/>
       </c>
       <c r="G64" s="5" t="str">
-        <f>'Course-5'!Q$72</f>
+        <f>'Course-5'!Q$79</f>
         <v/>
       </c>
       <c r="H64" s="5" t="str">
-        <f>'Course-5'!R$72</f>
+        <f>'Course-5'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>'Course-5'!M$79</f>
-        <v/>
-      </c>
-      <c r="D65" s="5" t="str">
-        <f>'Course-5'!N$79</f>
-        <v/>
-      </c>
-      <c r="E65" s="5" t="str">
-        <f>'Course-5'!O$79</f>
-        <v/>
-      </c>
-      <c r="F65" s="5" t="str">
-        <f>'Course-5'!P$79</f>
-        <v/>
-      </c>
-      <c r="G65" s="5" t="str">
-        <f>'Course-5'!Q$79</f>
-        <v/>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f>'Course-5'!R$79</f>
-        <v/>
+        <f>'Course-5'!M$86</f>
+        <v>Applied</v>
+      </c>
+      <c r="D65" s="5">
+        <f>'Course-5'!N$86</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <f>'Course-5'!O$86</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <f>'Course-5'!P$86</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <f>'Course-5'!Q$86</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="H65" s="5">
+        <f>'Course-5'!R$86</f>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B66" t="str">
         <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
         <v>ENME 538 (W16)</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>'Course-5'!M$86</f>
-        <v>Applied</v>
-      </c>
-      <c r="D66" s="5">
-        <f>'Course-5'!N$86</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
-        <f>'Course-5'!O$86</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="5">
-        <f>'Course-5'!P$86</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <f>'Course-5'!Q$86</f>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="H66" s="5">
-        <f>'Course-5'!R$86</f>
-        <v>0.967741935483871</v>
+        <f>'Course-5'!M$93</f>
+        <v/>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f>'Course-5'!N$93</f>
+        <v/>
+      </c>
+      <c r="E66" s="5" t="str">
+        <f>'Course-5'!O$93</f>
+        <v/>
+      </c>
+      <c r="F66" s="5" t="str">
+        <f>'Course-5'!P$93</f>
+        <v/>
+      </c>
+      <c r="G66" s="5" t="str">
+        <f>'Course-5'!Q$93</f>
+        <v/>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f>'Course-5'!R$93</f>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" t="str">
-        <f>RIGHT('Course-5'!A$2,LEN('Course-5'!A$2)-8)</f>
-        <v>ENME 538 (W16)</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f>'Course-5'!M$93</f>
-        <v/>
-      </c>
-      <c r="D67" s="5" t="str">
-        <f>'Course-5'!N$93</f>
-        <v/>
-      </c>
-      <c r="E67" s="5" t="str">
-        <f>'Course-5'!O$93</f>
-        <v/>
-      </c>
-      <c r="F67" s="5" t="str">
-        <f>'Course-5'!P$93</f>
-        <v/>
-      </c>
-      <c r="G67" s="5" t="str">
-        <f>'Course-5'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f>'Course-5'!R$93</f>
+      <c r="A67" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="7" t="str">
+        <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
+        <v>ENME 599 (W16)</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f>'Course-6'!M$16</f>
+        <v/>
+      </c>
+      <c r="D67" s="9" t="str">
+        <f>'Course-6'!N$16</f>
+        <v/>
+      </c>
+      <c r="E67" s="9" t="str">
+        <f>'Course-6'!O$16</f>
+        <v/>
+      </c>
+      <c r="F67" s="9" t="str">
+        <f>'Course-6'!P$16</f>
+        <v/>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f>'Course-6'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H67" s="9" t="str">
+        <f>'Course-6'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f>'Course-6'!M$16</f>
+        <f>'Course-6'!M$23</f>
         <v/>
       </c>
       <c r="D68" s="9" t="str">
-        <f>'Course-6'!N$16</f>
+        <f>'Course-6'!N$23</f>
         <v/>
       </c>
       <c r="E68" s="9" t="str">
-        <f>'Course-6'!O$16</f>
+        <f>'Course-6'!O$23</f>
         <v/>
       </c>
       <c r="F68" s="9" t="str">
-        <f>'Course-6'!P$16</f>
+        <f>'Course-6'!P$23</f>
         <v/>
       </c>
       <c r="G68" s="9" t="str">
-        <f>'Course-6'!Q$16</f>
+        <f>'Course-6'!Q$23</f>
         <v/>
       </c>
       <c r="H68" s="9" t="str">
-        <f>'Course-6'!R$16</f>
+        <f>'Course-6'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f>'Course-6'!M$23</f>
-        <v/>
-      </c>
-      <c r="D69" s="9" t="str">
-        <f>'Course-6'!N$23</f>
-        <v/>
-      </c>
-      <c r="E69" s="9" t="str">
-        <f>'Course-6'!O$23</f>
-        <v/>
-      </c>
-      <c r="F69" s="9" t="str">
-        <f>'Course-6'!P$23</f>
-        <v/>
-      </c>
-      <c r="G69" s="9" t="str">
-        <f>'Course-6'!Q$23</f>
-        <v/>
-      </c>
-      <c r="H69" s="9" t="str">
-        <f>'Course-6'!R$23</f>
-        <v/>
+        <f>'Course-6'!M$30</f>
+        <v>Applied</v>
+      </c>
+      <c r="D69" s="9">
+        <f>'Course-6'!N$30</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="9">
+        <f>'Course-6'!O$30</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
+        <f>'Course-6'!P$30</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <f>'Course-6'!Q$30</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <f>'Course-6'!R$30</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B70" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f>'Course-6'!M$30</f>
-        <v>Applied</v>
-      </c>
-      <c r="D70" s="9">
-        <f>'Course-6'!N$30</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="9">
-        <f>'Course-6'!O$30</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <f>'Course-6'!P$30</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
-        <f>'Course-6'!Q$30</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
-        <f>'Course-6'!R$30</f>
-        <v>1</v>
+        <f>'Course-6'!M$37</f>
+        <v/>
+      </c>
+      <c r="D70" s="9" t="str">
+        <f>'Course-6'!N$37</f>
+        <v/>
+      </c>
+      <c r="E70" s="9" t="str">
+        <f>'Course-6'!O$37</f>
+        <v/>
+      </c>
+      <c r="F70" s="9" t="str">
+        <f>'Course-6'!P$37</f>
+        <v/>
+      </c>
+      <c r="G70" s="9" t="str">
+        <f>'Course-6'!Q$37</f>
+        <v/>
+      </c>
+      <c r="H70" s="9" t="str">
+        <f>'Course-6'!R$37</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B71" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f>'Course-6'!M$37</f>
+        <f>'Course-6'!M$44</f>
         <v/>
       </c>
       <c r="D71" s="9" t="str">
-        <f>'Course-6'!N$37</f>
+        <f>'Course-6'!N$44</f>
         <v/>
       </c>
       <c r="E71" s="9" t="str">
-        <f>'Course-6'!O$37</f>
+        <f>'Course-6'!O$44</f>
         <v/>
       </c>
       <c r="F71" s="9" t="str">
-        <f>'Course-6'!P$37</f>
+        <f>'Course-6'!P$44</f>
         <v/>
       </c>
       <c r="G71" s="9" t="str">
-        <f>'Course-6'!Q$37</f>
+        <f>'Course-6'!Q$44</f>
         <v/>
       </c>
       <c r="H71" s="9" t="str">
-        <f>'Course-6'!R$37</f>
+        <f>'Course-6'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f>'Course-6'!M$44</f>
+        <f>'Course-6'!M$51</f>
         <v/>
       </c>
       <c r="D72" s="9" t="str">
-        <f>'Course-6'!N$44</f>
+        <f>'Course-6'!N$51</f>
         <v/>
       </c>
       <c r="E72" s="9" t="str">
-        <f>'Course-6'!O$44</f>
+        <f>'Course-6'!O$51</f>
         <v/>
       </c>
       <c r="F72" s="9" t="str">
-        <f>'Course-6'!P$44</f>
+        <f>'Course-6'!P$51</f>
         <v/>
       </c>
       <c r="G72" s="9" t="str">
-        <f>'Course-6'!Q$44</f>
+        <f>'Course-6'!Q$51</f>
         <v/>
       </c>
       <c r="H72" s="9" t="str">
-        <f>'Course-6'!R$44</f>
+        <f>'Course-6'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f>'Course-6'!M$51</f>
+        <f>'Course-6'!M$58</f>
         <v/>
       </c>
       <c r="D73" s="9" t="str">
-        <f>'Course-6'!N$51</f>
+        <f>'Course-6'!N$58</f>
         <v/>
       </c>
       <c r="E73" s="9" t="str">
-        <f>'Course-6'!O$51</f>
+        <f>'Course-6'!O$58</f>
         <v/>
       </c>
       <c r="F73" s="9" t="str">
-        <f>'Course-6'!P$51</f>
+        <f>'Course-6'!P$58</f>
         <v/>
       </c>
       <c r="G73" s="9" t="str">
-        <f>'Course-6'!Q$51</f>
+        <f>'Course-6'!Q$58</f>
         <v/>
       </c>
       <c r="H73" s="9" t="str">
-        <f>'Course-6'!R$51</f>
+        <f>'Course-6'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B74" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C74" s="8" t="str">
-        <f>'Course-6'!M$58</f>
+        <f>'Course-6'!M$65</f>
         <v/>
       </c>
       <c r="D74" s="9" t="str">
-        <f>'Course-6'!N$58</f>
+        <f>'Course-6'!N$65</f>
         <v/>
       </c>
       <c r="E74" s="9" t="str">
-        <f>'Course-6'!O$58</f>
+        <f>'Course-6'!O$65</f>
         <v/>
       </c>
       <c r="F74" s="9" t="str">
-        <f>'Course-6'!P$58</f>
+        <f>'Course-6'!P$65</f>
         <v/>
       </c>
       <c r="G74" s="9" t="str">
-        <f>'Course-6'!Q$58</f>
+        <f>'Course-6'!Q$65</f>
         <v/>
       </c>
       <c r="H74" s="9" t="str">
-        <f>'Course-6'!R$58</f>
+        <f>'Course-6'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C75" s="8" t="str">
-        <f>'Course-6'!M$65</f>
+        <f>'Course-6'!M$72</f>
         <v/>
       </c>
       <c r="D75" s="9" t="str">
-        <f>'Course-6'!N$65</f>
+        <f>'Course-6'!N$72</f>
         <v/>
       </c>
       <c r="E75" s="9" t="str">
-        <f>'Course-6'!O$65</f>
+        <f>'Course-6'!O$72</f>
         <v/>
       </c>
       <c r="F75" s="9" t="str">
-        <f>'Course-6'!P$65</f>
+        <f>'Course-6'!P$72</f>
         <v/>
       </c>
       <c r="G75" s="9" t="str">
-        <f>'Course-6'!Q$65</f>
+        <f>'Course-6'!Q$72</f>
         <v/>
       </c>
       <c r="H75" s="9" t="str">
-        <f>'Course-6'!R$65</f>
+        <f>'Course-6'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B76" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C76" s="8" t="str">
-        <f>'Course-6'!M$72</f>
+        <f>'Course-6'!M$79</f>
         <v/>
       </c>
       <c r="D76" s="9" t="str">
-        <f>'Course-6'!N$72</f>
+        <f>'Course-6'!N$79</f>
         <v/>
       </c>
       <c r="E76" s="9" t="str">
-        <f>'Course-6'!O$72</f>
+        <f>'Course-6'!O$79</f>
         <v/>
       </c>
       <c r="F76" s="9" t="str">
-        <f>'Course-6'!P$72</f>
+        <f>'Course-6'!P$79</f>
         <v/>
       </c>
       <c r="G76" s="9" t="str">
-        <f>'Course-6'!Q$72</f>
+        <f>'Course-6'!Q$79</f>
         <v/>
       </c>
       <c r="H76" s="9" t="str">
-        <f>'Course-6'!R$72</f>
+        <f>'Course-6'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C77" s="8" t="str">
-        <f>'Course-6'!M$79</f>
+        <f>'Course-6'!M$86</f>
         <v/>
       </c>
       <c r="D77" s="9" t="str">
-        <f>'Course-6'!N$79</f>
+        <f>'Course-6'!N$86</f>
         <v/>
       </c>
       <c r="E77" s="9" t="str">
-        <f>'Course-6'!O$79</f>
+        <f>'Course-6'!O$86</f>
         <v/>
       </c>
       <c r="F77" s="9" t="str">
-        <f>'Course-6'!P$79</f>
+        <f>'Course-6'!P$86</f>
         <v/>
       </c>
       <c r="G77" s="9" t="str">
-        <f>'Course-6'!Q$79</f>
+        <f>'Course-6'!Q$86</f>
         <v/>
       </c>
       <c r="H77" s="9" t="str">
-        <f>'Course-6'!R$79</f>
+        <f>'Course-6'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B78" s="7" t="str">
         <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
         <v>ENME 599 (W16)</v>
       </c>
       <c r="C78" s="8" t="str">
-        <f>'Course-6'!M$86</f>
+        <f>'Course-6'!M$93</f>
         <v/>
       </c>
       <c r="D78" s="9" t="str">
-        <f>'Course-6'!N$86</f>
+        <f>'Course-6'!N$93</f>
         <v/>
       </c>
       <c r="E78" s="9" t="str">
-        <f>'Course-6'!O$86</f>
+        <f>'Course-6'!O$93</f>
         <v/>
       </c>
       <c r="F78" s="9" t="str">
-        <f>'Course-6'!P$86</f>
+        <f>'Course-6'!P$93</f>
         <v/>
       </c>
       <c r="G78" s="9" t="str">
-        <f>'Course-6'!Q$86</f>
+        <f>'Course-6'!Q$93</f>
         <v/>
       </c>
       <c r="H78" s="9" t="str">
-        <f>'Course-6'!R$86</f>
+        <f>'Course-6'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="7" t="str">
-        <f>RIGHT('Course-6'!A$2,LEN('Course-6'!A$2)-8)</f>
-        <v>ENME 599 (W16)</v>
-      </c>
-      <c r="C79" s="8" t="str">
-        <f>'Course-6'!M$93</f>
-        <v/>
-      </c>
-      <c r="D79" s="9" t="str">
-        <f>'Course-6'!N$93</f>
-        <v/>
-      </c>
-      <c r="E79" s="9" t="str">
-        <f>'Course-6'!O$93</f>
-        <v/>
-      </c>
-      <c r="F79" s="9" t="str">
-        <f>'Course-6'!P$93</f>
-        <v/>
-      </c>
-      <c r="G79" s="9" t="str">
-        <f>'Course-6'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H79" s="9" t="str">
-        <f>'Course-6'!R$93</f>
-        <v/>
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="str">
+        <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
+        <v>Self-efficacy</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f>'Course-7'!M$16</f>
+        <v>Applied</v>
+      </c>
+      <c r="D79" s="5">
+        <f>'Course-7'!N$16</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <f>'Course-7'!O$16</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F79" s="5">
+        <f>'Course-7'!P$16</f>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G79" s="5">
+        <f>'Course-7'!Q$16</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="H79" s="5">
+        <f>'Course-7'!R$16</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B80" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>'Course-7'!M$16</f>
+        <f>'Course-7'!M$23</f>
         <v>Applied</v>
       </c>
       <c r="D80" s="5">
-        <f>'Course-7'!N$16</f>
+        <f>'Course-7'!N$23</f>
         <v>0</v>
       </c>
       <c r="E80" s="5">
-        <f>'Course-7'!O$16</f>
+        <f>'Course-7'!O$23</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F80" s="5">
-        <f>'Course-7'!P$16</f>
-        <v>7.7777777777777779E-2</v>
+        <f>'Course-7'!P$23</f>
+        <v>0.1</v>
       </c>
       <c r="G80" s="5">
-        <f>'Course-7'!Q$16</f>
-        <v>0.61111111111111116</v>
+        <f>'Course-7'!Q$23</f>
+        <v>0.58888888888888891</v>
       </c>
       <c r="H80" s="5">
-        <f>'Course-7'!R$16</f>
-        <v>0.27777777777777779</v>
+        <f>'Course-7'!R$23</f>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>'Course-7'!M$23</f>
+        <f>'Course-7'!M$30</f>
         <v>Applied</v>
       </c>
       <c r="D81" s="5">
-        <f>'Course-7'!N$23</f>
+        <f>'Course-7'!N$30</f>
         <v>0</v>
       </c>
       <c r="E81" s="5">
-        <f>'Course-7'!O$23</f>
-        <v>3.3333333333333333E-2</v>
+        <f>'Course-7'!O$30</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="F81" s="5">
-        <f>'Course-7'!P$23</f>
+        <f>'Course-7'!P$30</f>
         <v>0.1</v>
       </c>
       <c r="G81" s="5">
-        <f>'Course-7'!Q$23</f>
-        <v>0.58888888888888891</v>
+        <f>'Course-7'!Q$30</f>
+        <v>0.52222222222222225</v>
       </c>
       <c r="H81" s="5">
-        <f>'Course-7'!R$23</f>
-        <v>0.26666666666666666</v>
+        <f>'Course-7'!R$30</f>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B82" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>'Course-7'!M$30</f>
+        <f>'Course-7'!M$37</f>
         <v>Applied</v>
       </c>
       <c r="D82" s="5">
-        <f>'Course-7'!N$30</f>
+        <f>'Course-7'!N$37</f>
         <v>0</v>
       </c>
       <c r="E82" s="5">
-        <f>'Course-7'!O$30</f>
-        <v>2.2222222222222223E-2</v>
+        <f>'Course-7'!O$37</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="F82" s="5">
-        <f>'Course-7'!P$30</f>
-        <v>0.1</v>
+        <f>'Course-7'!P$37</f>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="G82" s="5">
-        <f>'Course-7'!Q$30</f>
-        <v>0.52222222222222225</v>
+        <f>'Course-7'!Q$37</f>
+        <v>0.51111111111111107</v>
       </c>
       <c r="H82" s="5">
-        <f>'Course-7'!R$30</f>
-        <v>0.34444444444444444</v>
+        <f>'Course-7'!R$37</f>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B83" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>'Course-7'!M$37</f>
+        <f>'Course-7'!M$44</f>
         <v>Applied</v>
       </c>
       <c r="D83" s="5">
-        <f>'Course-7'!N$37</f>
+        <f>'Course-7'!N$44</f>
         <v>0</v>
       </c>
       <c r="E83" s="5">
-        <f>'Course-7'!O$37</f>
-        <v>1.1111111111111112E-2</v>
+        <f>'Course-7'!O$44</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F83" s="5">
-        <f>'Course-7'!P$37</f>
-        <v>7.7777777777777779E-2</v>
+        <f>'Course-7'!P$44</f>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G83" s="5">
-        <f>'Course-7'!Q$37</f>
-        <v>0.51111111111111107</v>
+        <f>'Course-7'!Q$44</f>
+        <v>0.4</v>
       </c>
       <c r="H83" s="5">
-        <f>'Course-7'!R$37</f>
-        <v>0.36666666666666664</v>
+        <f>'Course-7'!R$44</f>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>'Course-7'!M$44</f>
+        <f>'Course-7'!M$51</f>
         <v>Applied</v>
       </c>
       <c r="D84" s="5">
-        <f>'Course-7'!N$44</f>
+        <f>'Course-7'!N$51</f>
         <v>0</v>
       </c>
       <c r="E84" s="5">
-        <f>'Course-7'!O$44</f>
-        <v>3.3333333333333333E-2</v>
+        <f>'Course-7'!O$51</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F84" s="5">
-        <f>'Course-7'!P$44</f>
-        <v>0.12222222222222222</v>
+        <f>'Course-7'!P$51</f>
+        <v>0.1</v>
       </c>
       <c r="G84" s="5">
-        <f>'Course-7'!Q$44</f>
-        <v>0.4</v>
+        <f>'Course-7'!Q$51</f>
+        <v>0.49166666666666664</v>
       </c>
       <c r="H84" s="5">
-        <f>'Course-7'!R$44</f>
-        <v>0.42222222222222222</v>
+        <f>'Course-7'!R$51</f>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>'Course-7'!M$51</f>
+        <f>'Course-7'!M$58</f>
         <v>Applied</v>
       </c>
       <c r="D85" s="5">
-        <f>'Course-7'!N$51</f>
+        <f>'Course-7'!N$58</f>
         <v>0</v>
       </c>
       <c r="E85" s="5">
-        <f>'Course-7'!O$51</f>
-        <v>2.5000000000000001E-2</v>
+        <f>'Course-7'!O$58</f>
+        <v>0.05</v>
       </c>
       <c r="F85" s="5">
-        <f>'Course-7'!P$51</f>
-        <v>0.1</v>
+        <f>'Course-7'!P$58</f>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="G85" s="5">
-        <f>'Course-7'!Q$51</f>
-        <v>0.49166666666666664</v>
+        <f>'Course-7'!Q$58</f>
+        <v>0.35</v>
       </c>
       <c r="H85" s="5">
-        <f>'Course-7'!R$51</f>
-        <v>0.35833333333333334</v>
+        <f>'Course-7'!R$58</f>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B86" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>'Course-7'!M$58</f>
+        <f>'Course-7'!M$65</f>
         <v>Applied</v>
       </c>
       <c r="D86" s="5">
-        <f>'Course-7'!N$58</f>
+        <f>'Course-7'!N$65</f>
         <v>0</v>
       </c>
       <c r="E86" s="5">
-        <f>'Course-7'!O$58</f>
-        <v>0.05</v>
+        <f>'Course-7'!O$65</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="F86" s="5">
-        <f>'Course-7'!P$58</f>
-        <v>9.166666666666666E-2</v>
+        <f>'Course-7'!P$65</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G86" s="5">
-        <f>'Course-7'!Q$58</f>
-        <v>0.35</v>
+        <f>'Course-7'!Q$65</f>
+        <v>0.41111111111111109</v>
       </c>
       <c r="H86" s="5">
-        <f>'Course-7'!R$58</f>
-        <v>0.48333333333333334</v>
+        <f>'Course-7'!R$65</f>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B87" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>'Course-7'!M$65</f>
+        <f>'Course-7'!M$72</f>
         <v>Applied</v>
       </c>
       <c r="D87" s="5">
-        <f>'Course-7'!N$65</f>
-        <v>0</v>
+        <f>'Course-7'!N$72</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="E87" s="5">
-        <f>'Course-7'!O$65</f>
-        <v>1.1111111111111112E-2</v>
+        <f>'Course-7'!O$72</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="F87" s="5">
-        <f>'Course-7'!P$65</f>
+        <f>'Course-7'!P$72</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="G87" s="5">
-        <f>'Course-7'!Q$65</f>
-        <v>0.41111111111111109</v>
+        <f>'Course-7'!Q$72</f>
+        <v>0.43333333333333335</v>
       </c>
       <c r="H87" s="5">
-        <f>'Course-7'!R$65</f>
-        <v>0.42222222222222222</v>
+        <f>'Course-7'!R$72</f>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B88" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>'Course-7'!M$72</f>
+        <f>'Course-7'!M$79</f>
         <v>Applied</v>
       </c>
       <c r="D88" s="5">
-        <f>'Course-7'!N$72</f>
-        <v>1.1111111111111112E-2</v>
+        <f>'Course-7'!N$79</f>
+        <v>0</v>
       </c>
       <c r="E88" s="5">
-        <f>'Course-7'!O$72</f>
+        <f>'Course-7'!O$79</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="F88" s="5">
-        <f>'Course-7'!P$72</f>
-        <v>0.13333333333333333</v>
+        <f>'Course-7'!P$79</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G88" s="5">
-        <f>'Course-7'!Q$72</f>
+        <f>'Course-7'!Q$79</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="H88" s="5">
-        <f>'Course-7'!R$72</f>
-        <v>0.36666666666666664</v>
+        <f>'Course-7'!R$79</f>
+        <v>0.45555555555555555</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B89" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>'Course-7'!M$79</f>
+        <f>'Course-7'!M$86</f>
         <v>Applied</v>
       </c>
       <c r="D89" s="5">
-        <f>'Course-7'!N$79</f>
+        <f>'Course-7'!N$86</f>
         <v>0</v>
       </c>
       <c r="E89" s="5">
-        <f>'Course-7'!O$79</f>
-        <v>2.2222222222222223E-2</v>
+        <f>'Course-7'!O$86</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F89" s="5">
-        <f>'Course-7'!P$79</f>
-        <v>6.6666666666666666E-2</v>
+        <f>'Course-7'!P$86</f>
+        <v>0.1</v>
       </c>
       <c r="G89" s="5">
-        <f>'Course-7'!Q$79</f>
-        <v>0.43333333333333335</v>
+        <f>'Course-7'!Q$86</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="H89" s="5">
-        <f>'Course-7'!R$79</f>
-        <v>0.45555555555555555</v>
+        <f>'Course-7'!R$86</f>
+        <v>0.37777777777777777</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B90" t="str">
         <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
         <v>Self-efficacy</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>'Course-7'!M$86</f>
-        <v>Applied</v>
-      </c>
-      <c r="D90" s="5">
-        <f>'Course-7'!N$86</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="5">
-        <f>'Course-7'!O$86</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="F90" s="5">
-        <f>'Course-7'!P$86</f>
-        <v>0.1</v>
-      </c>
-      <c r="G90" s="5">
-        <f>'Course-7'!Q$86</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="H90" s="5">
-        <f>'Course-7'!R$86</f>
-        <v>0.37777777777777777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" t="str">
-        <f>RIGHT('Course-7'!A$2,LEN('Course-7'!A$2)-8)</f>
-        <v>Self-efficacy</v>
-      </c>
-      <c r="C91" s="2" t="str">
         <f>'Course-7'!M$93</f>
         <v>Applied</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D90" s="5">
         <f>'Course-7'!N$93</f>
         <v>0</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E90" s="5">
         <f>'Course-7'!O$93</f>
         <v>0</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F90" s="5">
         <f>'Course-7'!P$93</f>
         <v>0.12222222222222222</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G90" s="5">
         <f>'Course-7'!Q$93</f>
         <v>0.4</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H90" s="5">
         <f>'Course-7'!R$93</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="7" t="str">
+        <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
+        <v>SDLRS (F14)</v>
+      </c>
+      <c r="C91" s="8" t="str">
+        <f>'Course-8'!M$16</f>
+        <v/>
+      </c>
+      <c r="D91" s="9" t="str">
+        <f>'Course-8'!N$16</f>
+        <v/>
+      </c>
+      <c r="E91" s="9" t="str">
+        <f>'Course-8'!O$16</f>
+        <v/>
+      </c>
+      <c r="F91" s="9" t="str">
+        <f>'Course-8'!P$16</f>
+        <v/>
+      </c>
+      <c r="G91" s="9" t="str">
+        <f>'Course-8'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H91" s="9" t="str">
+        <f>'Course-8'!R$16</f>
+        <v/>
+      </c>
+    </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B92" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C92" s="8" t="str">
-        <f>'Course-8'!M$16</f>
+        <f>'Course-8'!M$23</f>
         <v/>
       </c>
       <c r="D92" s="9" t="str">
-        <f>'Course-8'!N$16</f>
+        <f>'Course-8'!N$23</f>
         <v/>
       </c>
       <c r="E92" s="9" t="str">
-        <f>'Course-8'!O$16</f>
+        <f>'Course-8'!O$23</f>
         <v/>
       </c>
       <c r="F92" s="9" t="str">
-        <f>'Course-8'!P$16</f>
+        <f>'Course-8'!P$23</f>
         <v/>
       </c>
       <c r="G92" s="9" t="str">
-        <f>'Course-8'!Q$16</f>
+        <f>'Course-8'!Q$23</f>
         <v/>
       </c>
       <c r="H92" s="9" t="str">
-        <f>'Course-8'!R$16</f>
+        <f>'Course-8'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C93" s="8" t="str">
-        <f>'Course-8'!M$23</f>
+        <f>'Course-8'!M$30</f>
         <v/>
       </c>
       <c r="D93" s="9" t="str">
-        <f>'Course-8'!N$23</f>
+        <f>'Course-8'!N$30</f>
         <v/>
       </c>
       <c r="E93" s="9" t="str">
-        <f>'Course-8'!O$23</f>
+        <f>'Course-8'!O$30</f>
         <v/>
       </c>
       <c r="F93" s="9" t="str">
-        <f>'Course-8'!P$23</f>
+        <f>'Course-8'!P$30</f>
         <v/>
       </c>
       <c r="G93" s="9" t="str">
-        <f>'Course-8'!Q$23</f>
+        <f>'Course-8'!Q$30</f>
         <v/>
       </c>
       <c r="H93" s="9" t="str">
-        <f>'Course-8'!R$23</f>
+        <f>'Course-8'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B94" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C94" s="8" t="str">
-        <f>'Course-8'!M$30</f>
+        <f>'Course-8'!M$37</f>
         <v/>
       </c>
       <c r="D94" s="9" t="str">
-        <f>'Course-8'!N$30</f>
+        <f>'Course-8'!N$37</f>
         <v/>
       </c>
       <c r="E94" s="9" t="str">
-        <f>'Course-8'!O$30</f>
+        <f>'Course-8'!O$37</f>
         <v/>
       </c>
       <c r="F94" s="9" t="str">
-        <f>'Course-8'!P$30</f>
+        <f>'Course-8'!P$37</f>
         <v/>
       </c>
       <c r="G94" s="9" t="str">
-        <f>'Course-8'!Q$30</f>
+        <f>'Course-8'!Q$37</f>
         <v/>
       </c>
       <c r="H94" s="9" t="str">
-        <f>'Course-8'!R$30</f>
+        <f>'Course-8'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B95" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C95" s="8" t="str">
-        <f>'Course-8'!M$37</f>
+        <f>'Course-8'!M$44</f>
         <v/>
       </c>
       <c r="D95" s="9" t="str">
-        <f>'Course-8'!N$37</f>
+        <f>'Course-8'!N$44</f>
         <v/>
       </c>
       <c r="E95" s="9" t="str">
-        <f>'Course-8'!O$37</f>
+        <f>'Course-8'!O$44</f>
         <v/>
       </c>
       <c r="F95" s="9" t="str">
-        <f>'Course-8'!P$37</f>
+        <f>'Course-8'!P$44</f>
         <v/>
       </c>
       <c r="G95" s="9" t="str">
-        <f>'Course-8'!Q$37</f>
+        <f>'Course-8'!Q$44</f>
         <v/>
       </c>
       <c r="H95" s="9" t="str">
-        <f>'Course-8'!R$37</f>
+        <f>'Course-8'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B96" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C96" s="8" t="str">
-        <f>'Course-8'!M$44</f>
+        <f>'Course-8'!M$51</f>
         <v/>
       </c>
       <c r="D96" s="9" t="str">
-        <f>'Course-8'!N$44</f>
+        <f>'Course-8'!N$51</f>
         <v/>
       </c>
       <c r="E96" s="9" t="str">
-        <f>'Course-8'!O$44</f>
+        <f>'Course-8'!O$51</f>
         <v/>
       </c>
       <c r="F96" s="9" t="str">
-        <f>'Course-8'!P$44</f>
+        <f>'Course-8'!P$51</f>
         <v/>
       </c>
       <c r="G96" s="9" t="str">
-        <f>'Course-8'!Q$44</f>
+        <f>'Course-8'!Q$51</f>
         <v/>
       </c>
       <c r="H96" s="9" t="str">
-        <f>'Course-8'!R$44</f>
+        <f>'Course-8'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B97" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C97" s="8" t="str">
-        <f>'Course-8'!M$51</f>
+        <f>'Course-8'!M$58</f>
         <v/>
       </c>
       <c r="D97" s="9" t="str">
-        <f>'Course-8'!N$51</f>
+        <f>'Course-8'!N$58</f>
         <v/>
       </c>
       <c r="E97" s="9" t="str">
-        <f>'Course-8'!O$51</f>
+        <f>'Course-8'!O$58</f>
         <v/>
       </c>
       <c r="F97" s="9" t="str">
-        <f>'Course-8'!P$51</f>
+        <f>'Course-8'!P$58</f>
         <v/>
       </c>
       <c r="G97" s="9" t="str">
-        <f>'Course-8'!Q$51</f>
+        <f>'Course-8'!Q$58</f>
         <v/>
       </c>
       <c r="H97" s="9" t="str">
-        <f>'Course-8'!R$51</f>
+        <f>'Course-8'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B98" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f>'Course-8'!M$58</f>
+        <f>'Course-8'!M$65</f>
         <v/>
       </c>
       <c r="D98" s="9" t="str">
-        <f>'Course-8'!N$58</f>
+        <f>'Course-8'!N$65</f>
         <v/>
       </c>
       <c r="E98" s="9" t="str">
-        <f>'Course-8'!O$58</f>
+        <f>'Course-8'!O$65</f>
         <v/>
       </c>
       <c r="F98" s="9" t="str">
-        <f>'Course-8'!P$58</f>
+        <f>'Course-8'!P$65</f>
         <v/>
       </c>
       <c r="G98" s="9" t="str">
-        <f>'Course-8'!Q$58</f>
+        <f>'Course-8'!Q$65</f>
         <v/>
       </c>
       <c r="H98" s="9" t="str">
-        <f>'Course-8'!R$58</f>
+        <f>'Course-8'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B99" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f>'Course-8'!M$65</f>
+        <f>'Course-8'!M$72</f>
         <v/>
       </c>
       <c r="D99" s="9" t="str">
-        <f>'Course-8'!N$65</f>
+        <f>'Course-8'!N$72</f>
         <v/>
       </c>
       <c r="E99" s="9" t="str">
-        <f>'Course-8'!O$65</f>
+        <f>'Course-8'!O$72</f>
         <v/>
       </c>
       <c r="F99" s="9" t="str">
-        <f>'Course-8'!P$65</f>
+        <f>'Course-8'!P$72</f>
         <v/>
       </c>
       <c r="G99" s="9" t="str">
-        <f>'Course-8'!Q$65</f>
+        <f>'Course-8'!Q$72</f>
         <v/>
       </c>
       <c r="H99" s="9" t="str">
-        <f>'Course-8'!R$65</f>
+        <f>'Course-8'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B100" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f>'Course-8'!M$72</f>
+        <f>'Course-8'!M$79</f>
         <v/>
       </c>
       <c r="D100" s="9" t="str">
-        <f>'Course-8'!N$72</f>
+        <f>'Course-8'!N$79</f>
         <v/>
       </c>
       <c r="E100" s="9" t="str">
-        <f>'Course-8'!O$72</f>
+        <f>'Course-8'!O$79</f>
         <v/>
       </c>
       <c r="F100" s="9" t="str">
-        <f>'Course-8'!P$72</f>
+        <f>'Course-8'!P$79</f>
         <v/>
       </c>
       <c r="G100" s="9" t="str">
-        <f>'Course-8'!Q$72</f>
+        <f>'Course-8'!Q$79</f>
         <v/>
       </c>
       <c r="H100" s="9" t="str">
-        <f>'Course-8'!R$72</f>
+        <f>'Course-8'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B101" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C101" s="8" t="str">
-        <f>'Course-8'!M$79</f>
+        <f>'Course-8'!M$86</f>
         <v/>
       </c>
       <c r="D101" s="9" t="str">
-        <f>'Course-8'!N$79</f>
+        <f>'Course-8'!N$86</f>
         <v/>
       </c>
       <c r="E101" s="9" t="str">
-        <f>'Course-8'!O$79</f>
+        <f>'Course-8'!O$86</f>
         <v/>
       </c>
       <c r="F101" s="9" t="str">
-        <f>'Course-8'!P$79</f>
+        <f>'Course-8'!P$86</f>
         <v/>
       </c>
       <c r="G101" s="9" t="str">
-        <f>'Course-8'!Q$79</f>
+        <f>'Course-8'!Q$86</f>
         <v/>
       </c>
       <c r="H101" s="9" t="str">
-        <f>'Course-8'!R$79</f>
+        <f>'Course-8'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B102" s="7" t="str">
         <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
         <v>SDLRS (F14)</v>
       </c>
       <c r="C102" s="8" t="str">
-        <f>'Course-8'!M$86</f>
-        <v/>
-      </c>
-      <c r="D102" s="9" t="str">
-        <f>'Course-8'!N$86</f>
-        <v/>
-      </c>
-      <c r="E102" s="9" t="str">
-        <f>'Course-8'!O$86</f>
-        <v/>
-      </c>
-      <c r="F102" s="9" t="str">
-        <f>'Course-8'!P$86</f>
-        <v/>
-      </c>
-      <c r="G102" s="9" t="str">
-        <f>'Course-8'!Q$86</f>
-        <v/>
-      </c>
-      <c r="H102" s="9" t="str">
-        <f>'Course-8'!R$86</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="7" t="str">
-        <f>RIGHT('Course-8'!A$2,LEN('Course-8'!A$2)-8)</f>
-        <v>SDLRS (F14)</v>
-      </c>
-      <c r="C103" s="8" t="str">
         <f>'Course-8'!M$93</f>
         <v>Developed</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D102" s="9">
         <f>'Course-8'!N$93</f>
         <v>1.6E-2</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E102" s="9">
         <f>'Course-8'!O$93</f>
         <v>0.124</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F102" s="9">
         <f>'Course-8'!P$93</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G102" s="9">
         <f>'Course-8'!Q$93</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="H103" s="9">
+      <c r="H102" s="9">
         <f>'Course-8'!R$93</f>
         <v>0.113</v>
       </c>
     </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="str">
+        <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
+        <v>-</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f>'Course-9'!M$16</f>
+        <v/>
+      </c>
+      <c r="D103" s="5" t="str">
+        <f>'Course-9'!N$16</f>
+        <v/>
+      </c>
+      <c r="E103" s="5" t="str">
+        <f>'Course-9'!O$16</f>
+        <v/>
+      </c>
+      <c r="F103" s="5" t="str">
+        <f>'Course-9'!P$16</f>
+        <v/>
+      </c>
+      <c r="G103" s="5" t="str">
+        <f>'Course-9'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f>'Course-9'!R$16</f>
+        <v/>
+      </c>
+    </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B104" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>'Course-9'!M$16</f>
+        <f>'Course-9'!M$23</f>
         <v/>
       </c>
       <c r="D104" s="5" t="str">
-        <f>'Course-9'!N$16</f>
+        <f>'Course-9'!N$23</f>
         <v/>
       </c>
       <c r="E104" s="5" t="str">
-        <f>'Course-9'!O$16</f>
+        <f>'Course-9'!O$23</f>
         <v/>
       </c>
       <c r="F104" s="5" t="str">
-        <f>'Course-9'!P$16</f>
+        <f>'Course-9'!P$23</f>
         <v/>
       </c>
       <c r="G104" s="5" t="str">
-        <f>'Course-9'!Q$16</f>
+        <f>'Course-9'!Q$23</f>
         <v/>
       </c>
       <c r="H104" s="5" t="str">
-        <f>'Course-9'!R$16</f>
+        <f>'Course-9'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B105" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>'Course-9'!M$23</f>
+        <f>'Course-9'!M$30</f>
         <v/>
       </c>
       <c r="D105" s="5" t="str">
-        <f>'Course-9'!N$23</f>
+        <f>'Course-9'!N$30</f>
         <v/>
       </c>
       <c r="E105" s="5" t="str">
-        <f>'Course-9'!O$23</f>
+        <f>'Course-9'!O$30</f>
         <v/>
       </c>
       <c r="F105" s="5" t="str">
-        <f>'Course-9'!P$23</f>
+        <f>'Course-9'!P$30</f>
         <v/>
       </c>
       <c r="G105" s="5" t="str">
-        <f>'Course-9'!Q$23</f>
+        <f>'Course-9'!Q$30</f>
         <v/>
       </c>
       <c r="H105" s="5" t="str">
-        <f>'Course-9'!R$23</f>
+        <f>'Course-9'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B106" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>'Course-9'!M$30</f>
+        <f>'Course-9'!M$37</f>
         <v/>
       </c>
       <c r="D106" s="5" t="str">
-        <f>'Course-9'!N$30</f>
+        <f>'Course-9'!N$37</f>
         <v/>
       </c>
       <c r="E106" s="5" t="str">
-        <f>'Course-9'!O$30</f>
+        <f>'Course-9'!O$37</f>
         <v/>
       </c>
       <c r="F106" s="5" t="str">
-        <f>'Course-9'!P$30</f>
+        <f>'Course-9'!P$37</f>
         <v/>
       </c>
       <c r="G106" s="5" t="str">
-        <f>'Course-9'!Q$30</f>
+        <f>'Course-9'!Q$37</f>
         <v/>
       </c>
       <c r="H106" s="5" t="str">
-        <f>'Course-9'!R$30</f>
+        <f>'Course-9'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B107" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>'Course-9'!M$37</f>
+        <f>'Course-9'!M$44</f>
         <v/>
       </c>
       <c r="D107" s="5" t="str">
-        <f>'Course-9'!N$37</f>
+        <f>'Course-9'!N$44</f>
         <v/>
       </c>
       <c r="E107" s="5" t="str">
-        <f>'Course-9'!O$37</f>
+        <f>'Course-9'!O$44</f>
         <v/>
       </c>
       <c r="F107" s="5" t="str">
-        <f>'Course-9'!P$37</f>
+        <f>'Course-9'!P$44</f>
         <v/>
       </c>
       <c r="G107" s="5" t="str">
-        <f>'Course-9'!Q$37</f>
+        <f>'Course-9'!Q$44</f>
         <v/>
       </c>
       <c r="H107" s="5" t="str">
-        <f>'Course-9'!R$37</f>
+        <f>'Course-9'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B108" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>'Course-9'!M$44</f>
+        <f>'Course-9'!M$51</f>
         <v/>
       </c>
       <c r="D108" s="5" t="str">
-        <f>'Course-9'!N$44</f>
+        <f>'Course-9'!N$51</f>
         <v/>
       </c>
       <c r="E108" s="5" t="str">
-        <f>'Course-9'!O$44</f>
+        <f>'Course-9'!O$51</f>
         <v/>
       </c>
       <c r="F108" s="5" t="str">
-        <f>'Course-9'!P$44</f>
+        <f>'Course-9'!P$51</f>
         <v/>
       </c>
       <c r="G108" s="5" t="str">
-        <f>'Course-9'!Q$44</f>
+        <f>'Course-9'!Q$51</f>
         <v/>
       </c>
       <c r="H108" s="5" t="str">
-        <f>'Course-9'!R$44</f>
+        <f>'Course-9'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B109" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>'Course-9'!M$51</f>
+        <f>'Course-9'!M$58</f>
         <v/>
       </c>
       <c r="D109" s="5" t="str">
-        <f>'Course-9'!N$51</f>
+        <f>'Course-9'!N$58</f>
         <v/>
       </c>
       <c r="E109" s="5" t="str">
-        <f>'Course-9'!O$51</f>
+        <f>'Course-9'!O$58</f>
         <v/>
       </c>
       <c r="F109" s="5" t="str">
-        <f>'Course-9'!P$51</f>
+        <f>'Course-9'!P$58</f>
         <v/>
       </c>
       <c r="G109" s="5" t="str">
-        <f>'Course-9'!Q$51</f>
+        <f>'Course-9'!Q$58</f>
         <v/>
       </c>
       <c r="H109" s="5" t="str">
-        <f>'Course-9'!R$51</f>
+        <f>'Course-9'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B110" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>'Course-9'!M$58</f>
+        <f>'Course-9'!M$65</f>
         <v/>
       </c>
       <c r="D110" s="5" t="str">
-        <f>'Course-9'!N$58</f>
+        <f>'Course-9'!N$65</f>
         <v/>
       </c>
       <c r="E110" s="5" t="str">
-        <f>'Course-9'!O$58</f>
+        <f>'Course-9'!O$65</f>
         <v/>
       </c>
       <c r="F110" s="5" t="str">
-        <f>'Course-9'!P$58</f>
+        <f>'Course-9'!P$65</f>
         <v/>
       </c>
       <c r="G110" s="5" t="str">
-        <f>'Course-9'!Q$58</f>
+        <f>'Course-9'!Q$65</f>
         <v/>
       </c>
       <c r="H110" s="5" t="str">
-        <f>'Course-9'!R$58</f>
+        <f>'Course-9'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B111" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>'Course-9'!M$65</f>
+        <f>'Course-9'!M$72</f>
         <v/>
       </c>
       <c r="D111" s="5" t="str">
-        <f>'Course-9'!N$65</f>
+        <f>'Course-9'!N$72</f>
         <v/>
       </c>
       <c r="E111" s="5" t="str">
-        <f>'Course-9'!O$65</f>
+        <f>'Course-9'!O$72</f>
         <v/>
       </c>
       <c r="F111" s="5" t="str">
-        <f>'Course-9'!P$65</f>
+        <f>'Course-9'!P$72</f>
         <v/>
       </c>
       <c r="G111" s="5" t="str">
-        <f>'Course-9'!Q$65</f>
+        <f>'Course-9'!Q$72</f>
         <v/>
       </c>
       <c r="H111" s="5" t="str">
-        <f>'Course-9'!R$65</f>
+        <f>'Course-9'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>'Course-9'!M$72</f>
+        <f>'Course-9'!M$79</f>
         <v/>
       </c>
       <c r="D112" s="5" t="str">
-        <f>'Course-9'!N$72</f>
+        <f>'Course-9'!N$79</f>
         <v/>
       </c>
       <c r="E112" s="5" t="str">
-        <f>'Course-9'!O$72</f>
+        <f>'Course-9'!O$79</f>
         <v/>
       </c>
       <c r="F112" s="5" t="str">
-        <f>'Course-9'!P$72</f>
+        <f>'Course-9'!P$79</f>
         <v/>
       </c>
       <c r="G112" s="5" t="str">
-        <f>'Course-9'!Q$72</f>
+        <f>'Course-9'!Q$79</f>
         <v/>
       </c>
       <c r="H112" s="5" t="str">
-        <f>'Course-9'!R$72</f>
+        <f>'Course-9'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>'Course-9'!M$79</f>
+        <f>'Course-9'!M$86</f>
         <v/>
       </c>
       <c r="D113" s="5" t="str">
-        <f>'Course-9'!N$79</f>
+        <f>'Course-9'!N$86</f>
         <v/>
       </c>
       <c r="E113" s="5" t="str">
-        <f>'Course-9'!O$79</f>
+        <f>'Course-9'!O$86</f>
         <v/>
       </c>
       <c r="F113" s="5" t="str">
-        <f>'Course-9'!P$79</f>
+        <f>'Course-9'!P$86</f>
         <v/>
       </c>
       <c r="G113" s="5" t="str">
-        <f>'Course-9'!Q$79</f>
+        <f>'Course-9'!Q$86</f>
         <v/>
       </c>
       <c r="H113" s="5" t="str">
-        <f>'Course-9'!R$79</f>
+        <f>'Course-9'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B114" t="str">
         <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>'Course-9'!M$86</f>
+        <f>'Course-9'!M$93</f>
         <v/>
       </c>
       <c r="D114" s="5" t="str">
-        <f>'Course-9'!N$86</f>
+        <f>'Course-9'!N$93</f>
         <v/>
       </c>
       <c r="E114" s="5" t="str">
-        <f>'Course-9'!O$86</f>
+        <f>'Course-9'!O$93</f>
         <v/>
       </c>
       <c r="F114" s="5" t="str">
-        <f>'Course-9'!P$86</f>
+        <f>'Course-9'!P$93</f>
         <v/>
       </c>
       <c r="G114" s="5" t="str">
-        <f>'Course-9'!Q$86</f>
+        <f>'Course-9'!Q$93</f>
         <v/>
       </c>
       <c r="H114" s="5" t="str">
-        <f>'Course-9'!R$86</f>
+        <f>'Course-9'!R$93</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" t="str">
-        <f>RIGHT('Course-9'!A$2,LEN('Course-9'!A$2)-8)</f>
+      <c r="A115" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="7" t="str">
+        <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
-      <c r="C115" s="2" t="str">
-        <f>'Course-9'!M$93</f>
-        <v/>
-      </c>
-      <c r="D115" s="5" t="str">
-        <f>'Course-9'!N$93</f>
-        <v/>
-      </c>
-      <c r="E115" s="5" t="str">
-        <f>'Course-9'!O$93</f>
-        <v/>
-      </c>
-      <c r="F115" s="5" t="str">
-        <f>'Course-9'!P$93</f>
-        <v/>
-      </c>
-      <c r="G115" s="5" t="str">
-        <f>'Course-9'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H115" s="5" t="str">
-        <f>'Course-9'!R$93</f>
+      <c r="C115" s="8" t="str">
+        <f>'Course-10'!M$16</f>
+        <v/>
+      </c>
+      <c r="D115" s="9" t="str">
+        <f>'Course-10'!N$16</f>
+        <v/>
+      </c>
+      <c r="E115" s="9" t="str">
+        <f>'Course-10'!O$16</f>
+        <v/>
+      </c>
+      <c r="F115" s="9" t="str">
+        <f>'Course-10'!P$16</f>
+        <v/>
+      </c>
+      <c r="G115" s="9" t="str">
+        <f>'Course-10'!Q$16</f>
+        <v/>
+      </c>
+      <c r="H115" s="9" t="str">
+        <f>'Course-10'!R$16</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B116" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f>'Course-10'!M$16</f>
+        <f>'Course-10'!M$23</f>
         <v/>
       </c>
       <c r="D116" s="9" t="str">
-        <f>'Course-10'!N$16</f>
+        <f>'Course-10'!N$23</f>
         <v/>
       </c>
       <c r="E116" s="9" t="str">
-        <f>'Course-10'!O$16</f>
+        <f>'Course-10'!O$23</f>
         <v/>
       </c>
       <c r="F116" s="9" t="str">
-        <f>'Course-10'!P$16</f>
+        <f>'Course-10'!P$23</f>
         <v/>
       </c>
       <c r="G116" s="9" t="str">
-        <f>'Course-10'!Q$16</f>
+        <f>'Course-10'!Q$23</f>
         <v/>
       </c>
       <c r="H116" s="9" t="str">
-        <f>'Course-10'!R$16</f>
+        <f>'Course-10'!R$23</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B117" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f>'Course-10'!M$23</f>
+        <f>'Course-10'!M$30</f>
         <v/>
       </c>
       <c r="D117" s="9" t="str">
-        <f>'Course-10'!N$23</f>
+        <f>'Course-10'!N$30</f>
         <v/>
       </c>
       <c r="E117" s="9" t="str">
-        <f>'Course-10'!O$23</f>
+        <f>'Course-10'!O$30</f>
         <v/>
       </c>
       <c r="F117" s="9" t="str">
-        <f>'Course-10'!P$23</f>
+        <f>'Course-10'!P$30</f>
         <v/>
       </c>
       <c r="G117" s="9" t="str">
-        <f>'Course-10'!Q$23</f>
+        <f>'Course-10'!Q$30</f>
         <v/>
       </c>
       <c r="H117" s="9" t="str">
-        <f>'Course-10'!R$23</f>
+        <f>'Course-10'!R$30</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B118" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f>'Course-10'!M$30</f>
+        <f>'Course-10'!M$37</f>
         <v/>
       </c>
       <c r="D118" s="9" t="str">
-        <f>'Course-10'!N$30</f>
+        <f>'Course-10'!N$37</f>
         <v/>
       </c>
       <c r="E118" s="9" t="str">
-        <f>'Course-10'!O$30</f>
+        <f>'Course-10'!O$37</f>
         <v/>
       </c>
       <c r="F118" s="9" t="str">
-        <f>'Course-10'!P$30</f>
+        <f>'Course-10'!P$37</f>
         <v/>
       </c>
       <c r="G118" s="9" t="str">
-        <f>'Course-10'!Q$30</f>
+        <f>'Course-10'!Q$37</f>
         <v/>
       </c>
       <c r="H118" s="9" t="str">
-        <f>'Course-10'!R$30</f>
+        <f>'Course-10'!R$37</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B119" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f>'Course-10'!M$37</f>
+        <f>'Course-10'!M$44</f>
         <v/>
       </c>
       <c r="D119" s="9" t="str">
-        <f>'Course-10'!N$37</f>
+        <f>'Course-10'!N$44</f>
         <v/>
       </c>
       <c r="E119" s="9" t="str">
-        <f>'Course-10'!O$37</f>
+        <f>'Course-10'!O$44</f>
         <v/>
       </c>
       <c r="F119" s="9" t="str">
-        <f>'Course-10'!P$37</f>
+        <f>'Course-10'!P$44</f>
         <v/>
       </c>
       <c r="G119" s="9" t="str">
-        <f>'Course-10'!Q$37</f>
+        <f>'Course-10'!Q$44</f>
         <v/>
       </c>
       <c r="H119" s="9" t="str">
-        <f>'Course-10'!R$37</f>
+        <f>'Course-10'!R$44</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B120" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f>'Course-10'!M$44</f>
+        <f>'Course-10'!M$51</f>
         <v/>
       </c>
       <c r="D120" s="9" t="str">
-        <f>'Course-10'!N$44</f>
+        <f>'Course-10'!N$51</f>
         <v/>
       </c>
       <c r="E120" s="9" t="str">
-        <f>'Course-10'!O$44</f>
+        <f>'Course-10'!O$51</f>
         <v/>
       </c>
       <c r="F120" s="9" t="str">
-        <f>'Course-10'!P$44</f>
+        <f>'Course-10'!P$51</f>
         <v/>
       </c>
       <c r="G120" s="9" t="str">
-        <f>'Course-10'!Q$44</f>
+        <f>'Course-10'!Q$51</f>
         <v/>
       </c>
       <c r="H120" s="9" t="str">
-        <f>'Course-10'!R$44</f>
+        <f>'Course-10'!R$51</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B121" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f>'Course-10'!M$51</f>
+        <f>'Course-10'!M$58</f>
         <v/>
       </c>
       <c r="D121" s="9" t="str">
-        <f>'Course-10'!N$51</f>
+        <f>'Course-10'!N$58</f>
         <v/>
       </c>
       <c r="E121" s="9" t="str">
-        <f>'Course-10'!O$51</f>
+        <f>'Course-10'!O$58</f>
         <v/>
       </c>
       <c r="F121" s="9" t="str">
-        <f>'Course-10'!P$51</f>
+        <f>'Course-10'!P$58</f>
         <v/>
       </c>
       <c r="G121" s="9" t="str">
-        <f>'Course-10'!Q$51</f>
+        <f>'Course-10'!Q$58</f>
         <v/>
       </c>
       <c r="H121" s="9" t="str">
-        <f>'Course-10'!R$51</f>
+        <f>'Course-10'!R$58</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B122" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C122" s="8" t="str">
-        <f>'Course-10'!M$58</f>
+        <f>'Course-10'!M$65</f>
         <v/>
       </c>
       <c r="D122" s="9" t="str">
-        <f>'Course-10'!N$58</f>
+        <f>'Course-10'!N$65</f>
         <v/>
       </c>
       <c r="E122" s="9" t="str">
-        <f>'Course-10'!O$58</f>
+        <f>'Course-10'!O$65</f>
         <v/>
       </c>
       <c r="F122" s="9" t="str">
-        <f>'Course-10'!P$58</f>
+        <f>'Course-10'!P$65</f>
         <v/>
       </c>
       <c r="G122" s="9" t="str">
-        <f>'Course-10'!Q$58</f>
+        <f>'Course-10'!Q$65</f>
         <v/>
       </c>
       <c r="H122" s="9" t="str">
-        <f>'Course-10'!R$58</f>
+        <f>'Course-10'!R$65</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C123" s="8" t="str">
-        <f>'Course-10'!M$65</f>
+        <f>'Course-10'!M$72</f>
         <v/>
       </c>
       <c r="D123" s="9" t="str">
-        <f>'Course-10'!N$65</f>
+        <f>'Course-10'!N$72</f>
         <v/>
       </c>
       <c r="E123" s="9" t="str">
-        <f>'Course-10'!O$65</f>
+        <f>'Course-10'!O$72</f>
         <v/>
       </c>
       <c r="F123" s="9" t="str">
-        <f>'Course-10'!P$65</f>
+        <f>'Course-10'!P$72</f>
         <v/>
       </c>
       <c r="G123" s="9" t="str">
-        <f>'Course-10'!Q$65</f>
+        <f>'Course-10'!Q$72</f>
         <v/>
       </c>
       <c r="H123" s="9" t="str">
-        <f>'Course-10'!R$65</f>
+        <f>'Course-10'!R$72</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C124" s="8" t="str">
-        <f>'Course-10'!M$72</f>
+        <f>'Course-10'!M$79</f>
         <v/>
       </c>
       <c r="D124" s="9" t="str">
-        <f>'Course-10'!N$72</f>
+        <f>'Course-10'!N$79</f>
         <v/>
       </c>
       <c r="E124" s="9" t="str">
-        <f>'Course-10'!O$72</f>
+        <f>'Course-10'!O$79</f>
         <v/>
       </c>
       <c r="F124" s="9" t="str">
-        <f>'Course-10'!P$72</f>
+        <f>'Course-10'!P$79</f>
         <v/>
       </c>
       <c r="G124" s="9" t="str">
-        <f>'Course-10'!Q$72</f>
+        <f>'Course-10'!Q$79</f>
         <v/>
       </c>
       <c r="H124" s="9" t="str">
-        <f>'Course-10'!R$72</f>
+        <f>'Course-10'!R$79</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C125" s="8" t="str">
-        <f>'Course-10'!M$79</f>
+        <f>'Course-10'!M$86</f>
         <v/>
       </c>
       <c r="D125" s="9" t="str">
-        <f>'Course-10'!N$79</f>
+        <f>'Course-10'!N$86</f>
         <v/>
       </c>
       <c r="E125" s="9" t="str">
-        <f>'Course-10'!O$79</f>
+        <f>'Course-10'!O$86</f>
         <v/>
       </c>
       <c r="F125" s="9" t="str">
-        <f>'Course-10'!P$79</f>
+        <f>'Course-10'!P$86</f>
         <v/>
       </c>
       <c r="G125" s="9" t="str">
-        <f>'Course-10'!Q$79</f>
+        <f>'Course-10'!Q$86</f>
         <v/>
       </c>
       <c r="H125" s="9" t="str">
-        <f>'Course-10'!R$79</f>
+        <f>'Course-10'!R$86</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B126" s="7" t="str">
         <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
         <v>-</v>
       </c>
       <c r="C126" s="8" t="str">
-        <f>'Course-10'!M$86</f>
+        <f>'Course-10'!M$93</f>
         <v/>
       </c>
       <c r="D126" s="9" t="str">
-        <f>'Course-10'!N$86</f>
+        <f>'Course-10'!N$93</f>
         <v/>
       </c>
       <c r="E126" s="9" t="str">
-        <f>'Course-10'!O$86</f>
+        <f>'Course-10'!O$93</f>
         <v/>
       </c>
       <c r="F126" s="9" t="str">
-        <f>'Course-10'!P$86</f>
+        <f>'Course-10'!P$93</f>
         <v/>
       </c>
       <c r="G126" s="9" t="str">
-        <f>'Course-10'!Q$86</f>
+        <f>'Course-10'!Q$93</f>
         <v/>
       </c>
       <c r="H126" s="9" t="str">
-        <f>'Course-10'!R$86</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" s="7" t="str">
-        <f>RIGHT('Course-10'!A$2,LEN('Course-10'!A$2)-8)</f>
-        <v>-</v>
-      </c>
-      <c r="C127" s="8" t="str">
-        <f>'Course-10'!M$93</f>
-        <v/>
-      </c>
-      <c r="D127" s="9" t="str">
-        <f>'Course-10'!N$93</f>
-        <v/>
-      </c>
-      <c r="E127" s="9" t="str">
-        <f>'Course-10'!O$93</f>
-        <v/>
-      </c>
-      <c r="F127" s="9" t="str">
-        <f>'Course-10'!P$93</f>
-        <v/>
-      </c>
-      <c r="G127" s="9" t="str">
-        <f>'Course-10'!Q$93</f>
-        <v/>
-      </c>
-      <c r="H127" s="9" t="str">
         <f>'Course-10'!R$93</f>
         <v/>
       </c>
@@ -14268,7 +14248,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14295,79 +14275,218 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
-        <v>69</v>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11" t="s">
-        <v>70</v>
+      <c r="A6" s="2">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
-        <v>77</v>
+      <c r="A7" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2.4096385542168679E-2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5.6177089309619434E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.14443488238668964</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.19650028686173263</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.57879135589978958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>9.3956043956043955E-2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.1489010989010989</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.31007326007326008</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.42509157509157508</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>2</v>
+      <c r="A10" s="2">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>63</v>
@@ -14379,59 +14498,59 @@
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <v>3.3333333333333333E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="H11" s="14">
-        <v>7.7777777777777779E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="14">
-        <v>0.61111111111111116</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="J11" s="14">
-        <v>0.27777777777777779</v>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F12" s="14">
-        <v>2.4096385542168679E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
-        <v>5.6177089309619434E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
-        <v>0.14443488238668964</v>
+        <v>0</v>
       </c>
       <c r="I12" s="14">
-        <v>0.19650028686173263</v>
+        <v>0.16774193548387098</v>
       </c>
       <c r="J12" s="14">
-        <v>0.57879135589978958</v>
+        <v>0.83225806451612905</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>63</v>
@@ -14443,219 +14562,219 @@
         <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>3.3333333333333333E-2</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="H13" s="14">
-        <v>0.1</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="I13" s="14">
-        <v>0.58888888888888891</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="J13" s="14">
-        <v>0.26666666666666666</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="14">
-        <v>2.197802197802198E-2</v>
-      </c>
-      <c r="G14" s="14">
-        <v>9.3956043956043955E-2</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.1489010989010989</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0.31007326007326008</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.42509157509157508</v>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.5977011494252873E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.83908045977011492</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.34444444444444444</v>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7.0967741935483872E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.91612903225806452</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0.16774193548387098</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.83225806451612905</v>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="H18" s="14">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.36666666666666664</v>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.2039072039072041E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.93382173382173383</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>4.5977011494252873E-2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>1.1494252873563218E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>0.10344827586206896</v>
+        <v>5.1612903225806452E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>0.83908045977011492</v>
+        <v>0.94838709677419353</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>63</v>
@@ -14667,30 +14786,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>3.3333333333333333E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="5">
-        <v>0.12222222222222222</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="J20" s="5">
-        <v>0.42222222222222222</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>28</v>
@@ -14699,219 +14818,219 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>6.4516129032258064E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>6.4516129032258064E-3</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I21" s="5">
-        <v>7.0967741935483872E-2</v>
+        <v>0.41111111111111109</v>
       </c>
       <c r="J21" s="5">
-        <v>0.91612903225806452</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.49166666666666664</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.35833333333333334</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.44907407407407413</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2.7472527472527472E-2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>2.2039072039072041E-2</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.93382173382173383</v>
+      <c r="F23" s="14">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5.1612903225806452E-2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.94838709677419353</v>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H24" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.45555555555555555</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H25" s="5">
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.48333333333333334</v>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.41111111111111109</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.42222222222222222</v>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.37777777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="14">
-        <v>3.7037037037037035E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G27" s="14">
-        <v>9.7222222222222224E-2</v>
+        <v>0.124</v>
       </c>
       <c r="H27" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="I27" s="14">
-        <v>0.25</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="J27" s="14">
-        <v>0.44907407407407413</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>63</v>
@@ -14920,193 +15039,193 @@
         <v>28</v>
       </c>
       <c r="F28" s="14">
-        <v>1.1111111111111112E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="14">
-        <v>2.2222222222222223E-2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="14">
-        <v>0.13333333333333333</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="I28" s="14">
-        <v>0.43333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="J28" s="14">
-        <v>0.36666666666666664</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="H29" s="14">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J29" s="14">
-        <v>0.45555555555555555</v>
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>11</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0.967741935483871</v>
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>11</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="14">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J31" s="14">
-        <v>0.37777777777777777</v>
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>12</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0.124</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="J32" s="14">
-        <v>0.113</v>
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>12</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="I33" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="J33" s="14">
-        <v>0.44444444444444442</v>
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -15129,16 +15248,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15161,16 +15280,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -15193,16 +15312,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15225,16 +15344,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -15257,16 +15376,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15289,16 +15408,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -15321,16 +15440,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>32</v>
@@ -15353,16 +15472,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>32</v>
@@ -15385,16 +15504,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15417,16 +15536,16 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15449,16 +15568,16 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -15481,16 +15600,16 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -15513,16 +15632,16 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15545,16 +15664,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15577,16 +15696,16 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -15609,16 +15728,16 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -15641,16 +15760,16 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B51" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -15673,16 +15792,16 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>32</v>
@@ -15705,16 +15824,16 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B53" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -15737,16 +15856,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -15769,16 +15888,16 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>32</v>
@@ -15801,16 +15920,16 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>32</v>
@@ -15833,16 +15952,16 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -15865,16 +15984,16 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -15897,16 +16016,16 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -15929,16 +16048,16 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>32</v>
@@ -15961,16 +16080,16 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>32</v>
@@ -15993,16 +16112,16 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B62" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -16025,16 +16144,16 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B63" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -16057,16 +16176,16 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B64" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -16089,16 +16208,16 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>32</v>
@@ -16121,16 +16240,16 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>32</v>
@@ -16153,16 +16272,16 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2">
+        <v>44</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="2">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>35</v>
-      </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>32</v>
@@ -16185,16 +16304,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2">
+        <v>45</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="2">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>27</v>
-      </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>32</v>
@@ -16217,16 +16336,16 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2">
+        <v>46</v>
+      </c>
+      <c r="B69" s="2">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="2">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>36</v>
-      </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -16249,16 +16368,16 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2">
+        <v>47</v>
+      </c>
+      <c r="B70" s="2">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="2">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -16281,16 +16400,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B71" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>32</v>
@@ -16313,16 +16432,16 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>32</v>
@@ -16345,16 +16464,16 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>32</v>
@@ -16377,16 +16496,16 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -16409,16 +16528,16 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>32</v>
@@ -16441,16 +16560,16 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B76" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -16473,16 +16592,16 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>32</v>
@@ -16505,16 +16624,16 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B78" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>32</v>
@@ -16537,16 +16656,16 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B79" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>32</v>
@@ -16569,16 +16688,16 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B80" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>32</v>
@@ -16601,16 +16720,16 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B81" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>32</v>
@@ -16633,16 +16752,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B82" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>32</v>
@@ -16665,16 +16784,16 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B83" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>32</v>
@@ -16697,16 +16816,16 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B84" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>32</v>
@@ -16729,16 +16848,16 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B85" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>32</v>
@@ -16761,16 +16880,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B86" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>32</v>
@@ -16793,16 +16912,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B87" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>32</v>
@@ -16825,16 +16944,16 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B88" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>32</v>
@@ -16857,16 +16976,16 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B89" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>32</v>
@@ -16889,16 +17008,16 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>32</v>
@@ -16921,16 +17040,16 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>32</v>
@@ -16953,16 +17072,16 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B92" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>32</v>
@@ -16985,16 +17104,16 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>32</v>
@@ -17017,16 +17136,16 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>32</v>
@@ -17049,16 +17168,16 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>32</v>
@@ -17081,16 +17200,16 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>32</v>
@@ -17113,16 +17232,16 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>32</v>
@@ -17145,16 +17264,16 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>32</v>
@@ -17177,16 +17296,16 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>32</v>
@@ -17209,16 +17328,16 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>32</v>
@@ -17241,16 +17360,16 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>32</v>
@@ -17273,16 +17392,16 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>32</v>
@@ -17305,16 +17424,16 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>32</v>
@@ -17337,16 +17456,16 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>32</v>
@@ -17369,16 +17488,16 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>32</v>
@@ -17401,16 +17520,16 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>32</v>
@@ -17433,13 +17552,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -17465,13 +17584,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -17497,13 +17616,13 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -17529,13 +17648,13 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -17561,13 +17680,13 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -17593,13 +17712,13 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -17625,13 +17744,13 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -17657,13 +17776,13 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -17689,13 +17808,13 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -17721,13 +17840,13 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -17753,13 +17872,13 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -17785,13 +17904,13 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -17817,13 +17936,13 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -17849,13 +17968,13 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -17881,13 +18000,13 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -17913,13 +18032,13 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -17945,13 +18064,13 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
@@ -17977,13 +18096,13 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -18009,13 +18128,13 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
@@ -18036,166 +18155,6 @@
         <v>32</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="2">
-        <v>116</v>
-      </c>
-      <c r="B126" s="2">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
-        <v>39</v>
-      </c>
-      <c r="D126" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="2">
-        <v>117</v>
-      </c>
-      <c r="B127" s="2">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="2">
-        <v>118</v>
-      </c>
-      <c r="B128" s="2">
-        <v>10</v>
-      </c>
-      <c r="C128" t="s">
-        <v>41</v>
-      </c>
-      <c r="D128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="2">
-        <v>119</v>
-      </c>
-      <c r="B129" s="2">
-        <v>11</v>
-      </c>
-      <c r="C129" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="2">
-        <v>120</v>
-      </c>
-      <c r="B130" s="2">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J130" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18219,7 +18178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18239,7 +18198,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -19931,7 +19890,7 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19952,7 +19911,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -21961,7 +21920,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -23964,7 +23923,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -25973,7 +25932,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -27988,7 +27947,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:18">

--- a/ICDT_Summary.xlsx
+++ b/ICDT_Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1440" windowWidth="28280" windowHeight="19600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="12" r:id="rId1"/>
@@ -285,12 +285,6 @@
     <t>3. The "Data" worksheet can be used to prepare the data for presentation in a graphical format</t>
   </si>
   <si>
-    <t xml:space="preserve">   (a) Sort entire table on "Instruction List" (column E) Z-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   (b) Sort populated table on "R" (column B) smallest-to-largest</t>
-  </si>
-  <si>
     <t xml:space="preserve">   (c) Plot as column chart (potentially more than one)</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>This spreadsheet is intended to be used in conjunction with the ICDT to summarize graduate attributes collection across an entire program each year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (a) Sort entire table on "Instruction Level" (column E) Z-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (b) Sort populated table on "G" (column B) smallest-to-largest</t>
   </si>
 </sst>
 </file>
@@ -1468,11 +1468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099939400"/>
-        <c:axId val="2099942504"/>
+        <c:axId val="2117579528"/>
+        <c:axId val="2117582632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099939400"/>
+        <c:axId val="2117579528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099942504"/>
+        <c:crossAx val="2117582632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099942504"/>
+        <c:axId val="2117582632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099939400"/>
+        <c:crossAx val="2117579528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,11 +2248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101259992"/>
-        <c:axId val="2101263048"/>
+        <c:axId val="2117693880"/>
+        <c:axId val="2117696936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2101259992"/>
+        <c:axId val="2117693880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101263048"/>
+        <c:crossAx val="2117696936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2269,7 +2269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101263048"/>
+        <c:axId val="2117696936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101259992"/>
+        <c:crossAx val="2117693880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2334,7 +2334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2968,11 +2967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099982424"/>
-        <c:axId val="2099985480"/>
+        <c:axId val="2117751080"/>
+        <c:axId val="2117754136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099982424"/>
+        <c:axId val="2117751080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099985480"/>
+        <c:crossAx val="2117754136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2989,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099985480"/>
+        <c:axId val="2117754136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,14 +2999,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099982424"/>
+        <c:crossAx val="2117751080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3021,7 +3019,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3032,7 +3030,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3054,7 +3052,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8568675" cy="5822108"/>
+    <xdr:ext cx="8564071" cy="5821770"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3081,7 +3079,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8568675" cy="5822108"/>
+    <xdr:ext cx="8564071" cy="5821770"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3386,7 +3384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3397,7 +3395,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3409,7 +3407,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3454,22 +3452,22 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5302,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6840,7 +6838,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E93" t="s">
         <v>65</v>
@@ -14361,7 +14359,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>65</v>
@@ -14425,7 +14423,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>65</v>
@@ -14457,7 +14455,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>28</v>
@@ -14521,7 +14519,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>28</v>
@@ -14585,7 +14583,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>65</v>
@@ -14649,7 +14647,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
@@ -14713,7 +14711,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -14745,7 +14743,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
@@ -14841,7 +14839,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>64</v>
@@ -14937,7 +14935,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>28</v>
@@ -15001,7 +14999,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>65</v>
@@ -15065,7 +15063,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -15097,7 +15095,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -15129,7 +15127,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -15161,7 +15159,7 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -15193,7 +15191,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>32</v>
@@ -15225,7 +15223,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -15257,7 +15255,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15289,7 +15287,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -15321,7 +15319,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15353,7 +15351,7 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -15385,7 +15383,7 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15417,7 +15415,7 @@
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -15449,7 +15447,7 @@
         <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>32</v>
@@ -15481,7 +15479,7 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>32</v>
@@ -15513,7 +15511,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15545,7 +15543,7 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15577,7 +15575,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -15609,7 +15607,7 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -15641,7 +15639,7 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15673,7 +15671,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15705,7 +15703,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -15737,7 +15735,7 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -15769,7 +15767,7 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -15801,7 +15799,7 @@
         <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>32</v>
@@ -15833,7 +15831,7 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -15865,7 +15863,7 @@
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -15897,7 +15895,7 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>32</v>
@@ -15929,7 +15927,7 @@
         <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>32</v>
@@ -15961,7 +15959,7 @@
         <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -15993,7 +15991,7 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -16025,7 +16023,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -16057,7 +16055,7 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>32</v>
@@ -16089,7 +16087,7 @@
         <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>32</v>
@@ -16121,7 +16119,7 @@
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -16153,7 +16151,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -16185,7 +16183,7 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -16217,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>32</v>
@@ -16249,7 +16247,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>32</v>
@@ -16281,7 +16279,7 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>32</v>
@@ -16313,7 +16311,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>32</v>
@@ -16345,7 +16343,7 @@
         <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -16377,7 +16375,7 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -16409,7 +16407,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>32</v>
@@ -16441,7 +16439,7 @@
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>32</v>
@@ -16473,7 +16471,7 @@
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>32</v>
@@ -16505,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -16537,7 +16535,7 @@
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>32</v>
@@ -16569,7 +16567,7 @@
         <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -16601,7 +16599,7 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>32</v>
@@ -16633,7 +16631,7 @@
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>32</v>
@@ -16665,7 +16663,7 @@
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>32</v>
@@ -16697,7 +16695,7 @@
         <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>32</v>
@@ -16729,7 +16727,7 @@
         <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>32</v>
@@ -16761,7 +16759,7 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>32</v>
@@ -16793,7 +16791,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>32</v>
@@ -16825,7 +16823,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>32</v>
@@ -16857,7 +16855,7 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>32</v>
@@ -16889,7 +16887,7 @@
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>32</v>
@@ -16921,7 +16919,7 @@
         <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>32</v>
@@ -16953,7 +16951,7 @@
         <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>32</v>
@@ -16985,7 +16983,7 @@
         <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>32</v>
@@ -17017,7 +17015,7 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>32</v>
@@ -17049,7 +17047,7 @@
         <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>32</v>
@@ -17081,7 +17079,7 @@
         <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>32</v>
@@ -17113,7 +17111,7 @@
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>32</v>
@@ -17145,7 +17143,7 @@
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>32</v>
@@ -17177,7 +17175,7 @@
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>32</v>
@@ -17209,7 +17207,7 @@
         <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>32</v>
@@ -17241,7 +17239,7 @@
         <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>32</v>
@@ -17273,7 +17271,7 @@
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>32</v>
@@ -17305,7 +17303,7 @@
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>32</v>
@@ -17337,7 +17335,7 @@
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>32</v>
@@ -17369,7 +17367,7 @@
         <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>32</v>
